--- a/fia/analytics I - planilha/Cálculo - tamanho da amostra_Alunos-v8.xlsx
+++ b/fia/analytics I - planilha/Cálculo - tamanho da amostra_Alunos-v8.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\20210615\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projetos\github.com\datascience\fia\analytics I - planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC63E53E-5F2C-48EE-A056-CD55AAB6312E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4E33EE-8F4A-46AE-97B2-5E107378472F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Média" sheetId="12" r:id="rId1"/>
@@ -1057,7 +1057,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="252">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1099,7 +1099,6 @@
     <xf numFmtId="43" fontId="12" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="17" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1136,9 +1135,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1416,20 +1412,8 @@
     <xf numFmtId="165" fontId="29" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1465,30 +1449,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1522,6 +1482,70 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="38" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Moeda" xfId="2" builtinId="4"/>
@@ -32428,7 +32452,7 @@
   <dimension ref="B1:T21"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -32452,475 +32476,475 @@
   <sheetData>
     <row r="1" spans="2:20" ht="22.5" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:20">
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="54"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="52"/>
     </row>
     <row r="3" spans="2:20" ht="16.5">
-      <c r="B3" s="227" t="s">
+      <c r="B3" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="228"/>
-      <c r="D3" s="228"/>
-      <c r="E3" s="228"/>
-      <c r="F3" s="228"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="228" t="s">
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="253"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="228"/>
-      <c r="J3" s="228"/>
-      <c r="K3" s="228"/>
-      <c r="L3" s="228"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="228" t="s">
+      <c r="I3" s="253"/>
+      <c r="J3" s="253"/>
+      <c r="K3" s="253"/>
+      <c r="L3" s="253"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="228"/>
-      <c r="P3" s="228"/>
-      <c r="Q3" s="228"/>
-      <c r="R3" s="229"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
     </row>
     <row r="4" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="234" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="29">
         <v>0.95</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="200"/>
-      <c r="G4" s="62"/>
-      <c r="H4" s="248" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="198"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="234" t="s">
         <v>65</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="29">
         <v>0.95</v>
       </c>
-      <c r="J4" s="62"/>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
-      <c r="M4" s="62"/>
-      <c r="N4" s="62"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="62"/>
-      <c r="Q4" s="62"/>
-      <c r="R4" s="63"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="61"/>
     </row>
     <row r="5" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B5" s="249" t="s">
+      <c r="B5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="213">
+      <c r="C5" s="207">
         <f>_xlfn.NORM.S.INV(C4+(1-C4)/2)</f>
         <v>1.9599639845400536</v>
       </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="90" t="s">
+      <c r="D5" s="60"/>
+      <c r="E5" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="98">
+      <c r="F5" s="96">
         <f>C5^2*C7^2*C8/(C6^2*(C8-1)+C5^2*C7^2)</f>
-        <v>384.14293841371278</v>
-      </c>
-      <c r="G5" s="62"/>
-      <c r="H5" s="249" t="s">
+        <v>127.46264909220761</v>
+      </c>
+      <c r="G5" s="60"/>
+      <c r="H5" s="235" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="246">
+      <c r="I5" s="232">
         <f>_xlfn.NORM.S.INV(I4+(1-I4)/2)</f>
         <v>1.9599639845400536</v>
       </c>
-      <c r="J5" s="62"/>
-      <c r="K5" s="31" t="s">
+      <c r="J5" s="60"/>
+      <c r="K5" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="167">
+      <c r="L5" s="165">
         <f>I5*I7/SQRT(I6)*SQRT((I8-I6)/(I8-1))</f>
         <v>100.22847680448562</v>
       </c>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="25" t="s">
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="238" t="s">
         <v>8</v>
       </c>
-      <c r="P5" s="39">
+      <c r="P5" s="38">
         <v>1200</v>
       </c>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="63"/>
+      <c r="Q5" s="60"/>
+      <c r="R5" s="61"/>
     </row>
     <row r="6" spans="2:20" ht="15.75">
-      <c r="B6" s="249" t="s">
+      <c r="B6" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="30">
-        <v>2</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="250" t="s">
+      <c r="C6" s="29">
+        <v>3</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="236" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="29">
         <v>95</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="25" t="s">
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="238" t="s">
         <v>7</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="25">
         <f>L5</f>
         <v>100.22847680448562</v>
       </c>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="63"/>
-      <c r="T6" s="29" t="s">
+      <c r="Q6" s="60"/>
+      <c r="R6" s="61"/>
+      <c r="T6" s="28" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:20">
-      <c r="B7" s="249" t="s">
+      <c r="B7" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C7" s="29">
         <v>20</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="250" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="236" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>500</v>
       </c>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="63"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="61"/>
       <c r="T7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:20">
-      <c r="B8" s="249" t="s">
+      <c r="B8" s="235" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="217">
-        <v>50000000</v>
-      </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="250" t="s">
+      <c r="C8" s="211">
+        <v>500</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="236" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>15000</v>
       </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="64" t="s">
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="60"/>
+      <c r="M8" s="60"/>
+      <c r="N8" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="65">
+      <c r="O8" s="63">
         <f>P5-P6</f>
         <v>1099.7715231955144</v>
       </c>
-      <c r="P8" s="65">
+      <c r="P8" s="63">
         <f>P5+P6</f>
         <v>1300.2284768044856</v>
       </c>
-      <c r="Q8" s="66" t="s">
+      <c r="Q8" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="63"/>
-      <c r="T8" s="27" t="s">
+      <c r="R8" s="61"/>
+      <c r="T8" s="26" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:20">
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="63"/>
-      <c r="T9" s="28" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="60"/>
+      <c r="O9" s="60"/>
+      <c r="P9" s="65"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="61"/>
+      <c r="T9" s="27" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:20" ht="15.75" thickBot="1">
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="71"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="69"/>
     </row>
     <row r="11" spans="2:20" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="12" spans="2:20">
-      <c r="B12" s="201" t="s">
+      <c r="B12" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="54"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
+      <c r="R12" s="52"/>
     </row>
     <row r="13" spans="2:20" ht="16.5">
-      <c r="B13" s="227" t="s">
+      <c r="B13" s="252" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="228"/>
-      <c r="D13" s="228"/>
-      <c r="E13" s="228"/>
-      <c r="F13" s="228"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="228" t="s">
+      <c r="C13" s="253"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="253"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="228"/>
-      <c r="J13" s="228"/>
-      <c r="K13" s="228"/>
-      <c r="L13" s="228"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="228" t="s">
+      <c r="I13" s="253"/>
+      <c r="J13" s="253"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="253"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="O13" s="228"/>
-      <c r="P13" s="228"/>
-      <c r="Q13" s="228"/>
-      <c r="R13" s="229"/>
+      <c r="O13" s="253"/>
+      <c r="P13" s="253"/>
+      <c r="Q13" s="253"/>
+      <c r="R13" s="254"/>
     </row>
     <row r="14" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B14" s="56"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="57"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="53"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="55"/>
     </row>
     <row r="15" spans="2:20" ht="17.25" thickBot="1">
-      <c r="B15" s="56"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="90" t="s">
+      <c r="B15" s="54"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="88" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="99">
+      <c r="F15" s="97">
         <f>C5^2*C7^2/C6^2</f>
-        <v>384.14588206941238</v>
-      </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+        <v>170.73150314196107</v>
+      </c>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
       <c r="K15" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L15" s="168">
+      <c r="L15" s="166">
         <f>I5*I7/SQRT(I6)</f>
         <v>100.54403095023284</v>
       </c>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="247" t="s">
+      <c r="M15" s="53"/>
+      <c r="N15" s="53"/>
+      <c r="O15" s="233" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="40">
+      <c r="P15" s="39">
         <v>48500</v>
       </c>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="57"/>
+      <c r="Q15" s="53"/>
+      <c r="R15" s="55"/>
     </row>
     <row r="16" spans="2:20" ht="16.5">
-      <c r="B16" s="56"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="247" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+      <c r="O16" s="233" t="s">
         <v>7</v>
       </c>
       <c r="P16" s="22">
         <f>L15</f>
         <v>100.54403095023284</v>
       </c>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="57"/>
+      <c r="Q16" s="53"/>
+      <c r="R16" s="55"/>
     </row>
     <row r="17" spans="2:18" ht="16.5">
-      <c r="B17" s="56"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="57"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="55"/>
     </row>
     <row r="18" spans="2:18" ht="16.5">
-      <c r="B18" s="56"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="32" t="s">
+      <c r="B18" s="54"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="O18" s="33">
+      <c r="O18" s="32">
         <f>P15-P16</f>
         <v>48399.45596904977</v>
       </c>
-      <c r="P18" s="33">
+      <c r="P18" s="32">
         <f>P15+P16</f>
         <v>48600.54403095023</v>
       </c>
-      <c r="Q18" s="34" t="s">
+      <c r="Q18" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="R18" s="57"/>
+      <c r="R18" s="55"/>
     </row>
     <row r="19" spans="2:18" ht="16.5">
-      <c r="B19" s="56"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="57"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="55"/>
     </row>
     <row r="20" spans="2:18" ht="17.25" thickBot="1">
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="58"/>
     </row>
     <row r="21" spans="2:18" ht="16.5">
       <c r="B21" s="21"/>
@@ -32991,29 +33015,29 @@
   <sheetData>
     <row r="1" spans="2:20" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="256" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="232"/>
-      <c r="F2" s="104" t="s">
+      <c r="D2" s="257"/>
+      <c r="F2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="106" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="13"/>
@@ -33025,21 +33049,21 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="2:20" ht="15">
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="209" t="s">
+      <c r="C3" s="203" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="212">
+      <c r="D3" s="206">
         <v>0.95</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="219"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="213"/>
       <c r="M3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
@@ -33049,34 +33073,34 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="2:20" ht="15">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="213">
+      <c r="D4" s="207">
         <f>_xlfn.NORM.S.INV(D3+(1-D3)/2)</f>
         <v>1.9599639845400536</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="103">
         <v>1</v>
       </c>
-      <c r="G4" s="102">
+      <c r="G4" s="100">
         <v>200</v>
       </c>
-      <c r="H4" s="179">
+      <c r="H4" s="177">
         <f>G4/$G$7</f>
         <v>5.4054054054054057E-2</v>
       </c>
-      <c r="I4" s="103">
+      <c r="I4" s="101">
         <v>300</v>
       </c>
-      <c r="J4" s="224">
+      <c r="J4" s="218">
         <f>(G4/$G$7)*$D$7</f>
         <v>86.572504409721688</v>
       </c>
-      <c r="K4" s="225">
+      <c r="K4" s="219">
         <f>J4/$J$7</f>
         <v>5.4054054054054057E-2</v>
       </c>
@@ -33088,33 +33112,33 @@
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="99">
         <v>5</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="103">
         <v>2</v>
       </c>
-      <c r="G5" s="102">
+      <c r="G5" s="100">
         <v>500</v>
       </c>
-      <c r="H5" s="179">
+      <c r="H5" s="177">
         <f t="shared" ref="H5:H6" si="0">G5/$G$7</f>
         <v>0.13513513513513514</v>
       </c>
-      <c r="I5" s="103">
+      <c r="I5" s="101">
         <v>200</v>
       </c>
-      <c r="J5" s="224">
+      <c r="J5" s="218">
         <f t="shared" ref="J5:J6" si="1">(G5/$G$7)*$D$7</f>
         <v>216.43126102430423</v>
       </c>
-      <c r="K5" s="225">
+      <c r="K5" s="219">
         <f t="shared" ref="K5:K6" si="2">J5/$J$7</f>
         <v>0.13513513513513514</v>
       </c>
@@ -33126,34 +33150,34 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="214" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="221">
+      <c r="D6" s="215">
         <f>G7</f>
         <v>3700</v>
       </c>
-      <c r="F6" s="105">
+      <c r="F6" s="103">
         <v>3</v>
       </c>
-      <c r="G6" s="102">
+      <c r="G6" s="100">
         <v>3000</v>
       </c>
-      <c r="H6" s="179">
+      <c r="H6" s="177">
         <f t="shared" si="0"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="I6" s="103">
+      <c r="I6" s="101">
         <v>100</v>
       </c>
-      <c r="J6" s="224">
+      <c r="J6" s="218">
         <f t="shared" si="1"/>
         <v>1298.5875661458253</v>
       </c>
-      <c r="K6" s="225">
+      <c r="K6" s="219">
         <f t="shared" si="2"/>
         <v>0.81081081081081086</v>
       </c>
@@ -33165,7 +33189,7 @@
       <c r="T6" s="16"/>
     </row>
     <row r="7" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -33175,22 +33199,22 @@
         <f>(D6*((G4*(I4^2))+(G5*(I5^2))+(G6*(I6^2))))/(((D6^2)*((D5/D4)^2))+(((G4*(I4^2))+(G5*(I5^2))+(G6*(I6^2)))))</f>
         <v>1601.5913315798512</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="109">
+      <c r="G7" s="107">
         <f>SUM(G4:G6)</f>
         <v>3700</v>
       </c>
-      <c r="H7" s="109">
+      <c r="H7" s="107">
         <v>1</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="112">
+      <c r="I7" s="108"/>
+      <c r="J7" s="110">
         <f>SUM(J4:J6)</f>
         <v>1601.5913315798512</v>
       </c>
-      <c r="K7" s="113"/>
+      <c r="K7" s="111"/>
       <c r="M7" s="13"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -33221,17 +33245,17 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
       <c r="O14" s="3"/>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="192"/>
+      <c r="C26" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -33279,29 +33303,29 @@
   <sheetData>
     <row r="1" spans="2:20" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="256" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="232"/>
-      <c r="F2" s="104" t="s">
+      <c r="D2" s="257"/>
+      <c r="F2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="106" t="s">
         <v>57</v>
       </c>
       <c r="M2" s="13"/>
@@ -33313,21 +33337,21 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="2:20" ht="15">
-      <c r="B3" s="235" t="s">
+      <c r="B3" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="244" t="s">
+      <c r="C3" s="230" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="212">
+      <c r="D3" s="206">
         <v>0.95</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="219"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="213"/>
       <c r="M3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
@@ -33337,34 +33361,34 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="2:20" ht="15">
-      <c r="B4" s="236" t="s">
+      <c r="B4" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="242" t="s">
+      <c r="C4" s="228" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="240">
+      <c r="D4" s="226">
         <f>_xlfn.NORM.S.INV(D3+(1-D3)/2)</f>
         <v>1.9599639845400536</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="103">
         <v>1</v>
       </c>
-      <c r="G4" s="102">
+      <c r="G4" s="100">
         <v>200</v>
       </c>
-      <c r="H4" s="239">
+      <c r="H4" s="225">
         <f>G4/$G$7</f>
         <v>5.4054054054054057E-2</v>
       </c>
-      <c r="I4" s="103">
+      <c r="I4" s="101">
         <v>300</v>
       </c>
-      <c r="J4" s="224">
+      <c r="J4" s="218">
         <f>(G4*I4/($G$4*$I$4+$G$5*$I$5+$G$6*$I$6))*$D$7</f>
         <v>175.69125894914106</v>
       </c>
-      <c r="K4" s="225">
+      <c r="K4" s="219">
         <f>J4/$J$7</f>
         <v>0.13043478260869565</v>
       </c>
@@ -33376,33 +33400,33 @@
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="237" t="s">
+      <c r="B5" s="223" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="245" t="s">
+      <c r="C5" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="99">
         <v>5</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="103">
         <v>2</v>
       </c>
-      <c r="G5" s="102">
+      <c r="G5" s="100">
         <v>500</v>
       </c>
-      <c r="H5" s="239">
+      <c r="H5" s="225">
         <f t="shared" ref="H5:H6" si="0">G5/$G$7</f>
         <v>0.13513513513513514</v>
       </c>
-      <c r="I5" s="103">
+      <c r="I5" s="101">
         <v>200</v>
       </c>
-      <c r="J5" s="224">
+      <c r="J5" s="218">
         <f t="shared" ref="J5:J6" si="1">(G5*I5/($G$4*$I$4+$G$5*$I$5+$G$6*$I$6))*$D$7</f>
         <v>292.81876491523514</v>
       </c>
-      <c r="K5" s="225">
+      <c r="K5" s="219">
         <f t="shared" ref="K5:K6" si="2">J5/$J$7</f>
         <v>0.21739130434782611</v>
       </c>
@@ -33414,34 +33438,34 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B6" s="238" t="s">
+      <c r="B6" s="224" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="243" t="s">
+      <c r="C6" s="229" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="241">
+      <c r="D6" s="227">
         <f>G7</f>
         <v>3700</v>
       </c>
-      <c r="F6" s="105">
+      <c r="F6" s="103">
         <v>3</v>
       </c>
-      <c r="G6" s="102">
+      <c r="G6" s="100">
         <v>3000</v>
       </c>
-      <c r="H6" s="239">
+      <c r="H6" s="225">
         <f t="shared" si="0"/>
         <v>0.81081081081081086</v>
       </c>
-      <c r="I6" s="103">
+      <c r="I6" s="101">
         <v>100</v>
       </c>
-      <c r="J6" s="224">
+      <c r="J6" s="218">
         <f t="shared" si="1"/>
         <v>878.45629474570535</v>
       </c>
-      <c r="K6" s="225">
+      <c r="K6" s="219">
         <f t="shared" si="2"/>
         <v>0.65217391304347827</v>
       </c>
@@ -33453,7 +33477,7 @@
       <c r="T6" s="16"/>
     </row>
     <row r="7" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -33463,22 +33487,22 @@
         <f>(((G4*(I4))+(G5*(I5))+(G6*(I6)))^2)/(((D6^2)*((D5/D4)^2))+(((G4*(I4^2))+(G5*(I5^2))+(G6*(I6^2)))))</f>
         <v>1346.9663186100815</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="109">
+      <c r="G7" s="107">
         <f>SUM(G4:G6)</f>
         <v>3700</v>
       </c>
-      <c r="H7" s="109">
+      <c r="H7" s="107">
         <v>1</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="112">
+      <c r="I7" s="108"/>
+      <c r="J7" s="110">
         <f>SUM(J4:J6)</f>
         <v>1346.9663186100815</v>
       </c>
-      <c r="K7" s="113"/>
+      <c r="K7" s="111"/>
       <c r="M7" s="13"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -33509,13 +33533,13 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
       <c r="O14" s="3"/>
     </row>
   </sheetData>
@@ -33533,8 +33557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:V26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -33554,91 +33578,91 @@
   <sheetData>
     <row r="1" spans="2:22" ht="9" customHeight="1"/>
     <row r="2" spans="2:22" ht="16.5">
-      <c r="C2" s="228" t="s">
+      <c r="C2" s="253" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="228"/>
-      <c r="E2" s="228"/>
-      <c r="F2" s="228"/>
-      <c r="G2" s="228"/>
-      <c r="L2" s="228" t="s">
+      <c r="D2" s="253"/>
+      <c r="E2" s="253"/>
+      <c r="F2" s="253"/>
+      <c r="G2" s="253"/>
+      <c r="L2" s="253" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="228"/>
-      <c r="N2" s="228"/>
-      <c r="O2" s="228"/>
-      <c r="P2" s="228"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="228" t="s">
+      <c r="M2" s="253"/>
+      <c r="N2" s="253"/>
+      <c r="O2" s="253"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="253" t="s">
         <v>3</v>
       </c>
-      <c r="S2" s="228"/>
-      <c r="T2" s="228"/>
-      <c r="U2" s="228"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="253"/>
+      <c r="U2" s="253"/>
     </row>
     <row r="3" spans="2:22" ht="13.5" thickBot="1"/>
     <row r="4" spans="2:22" ht="13.5" thickBot="1">
       <c r="C4" s="1"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="75"/>
-      <c r="R4" s="75"/>
-      <c r="S4" s="75"/>
-      <c r="T4" s="75"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
       <c r="U4" s="2"/>
     </row>
-    <row r="5" spans="2:22" s="38" customFormat="1" ht="15.75" thickBot="1">
-      <c r="B5" s="74"/>
-      <c r="C5" s="204" t="s">
+    <row r="5" spans="2:22" s="37" customFormat="1" ht="15.75" thickBot="1">
+      <c r="B5" s="72"/>
+      <c r="C5" s="200" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="207" t="s">
+      <c r="D5" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="211">
+      <c r="E5" s="205">
         <f>(((E7)^2)*E8*E9*E11)/((E10)^2*(E11-1)+((E7)^2)*E8*E9)</f>
-        <v>696.05145039399065</v>
-      </c>
-      <c r="F5" s="74"/>
+        <v>472.91789670991159</v>
+      </c>
+      <c r="F5" s="72"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="202" t="s">
+      <c r="K5" s="72"/>
+      <c r="L5" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="M5" s="30">
+      <c r="M5" s="29">
         <v>0.95</v>
       </c>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="74"/>
-      <c r="U5" s="84"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="82"/>
     </row>
     <row r="6" spans="2:22" ht="15">
-      <c r="C6" s="210" t="s">
+      <c r="C6" s="221" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="209" t="s">
+      <c r="D6" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="212">
+      <c r="E6" s="206">
         <v>0.95</v>
       </c>
       <c r="F6" s="3"/>
@@ -33647,10 +33671,10 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="203" t="s">
+      <c r="L6" s="241" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="213">
+      <c r="M6" s="207">
         <f>_xlfn.NORM.S.INV(M5+(1-M5)/2)</f>
         <v>1.9599639845400536</v>
       </c>
@@ -33661,17 +33685,17 @@
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="89"/>
-      <c r="V6" s="38"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="37"/>
     </row>
     <row r="7" spans="2:22" ht="15">
-      <c r="C7" s="205" t="s">
+      <c r="C7" s="222" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="208" t="s">
+      <c r="D7" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="246">
+      <c r="E7" s="232">
         <f>_xlfn.NORM.S.INV(E6+(1-E6)/2)</f>
         <v>1.9599639845400536</v>
       </c>
@@ -33681,31 +33705,31 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="238" t="s">
         <v>6</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="25" t="s">
+      <c r="M7" s="29"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="39"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="62"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="60"/>
     </row>
     <row r="8" spans="2:22" ht="15">
-      <c r="C8" s="205" t="s">
+      <c r="C8" s="222" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="245" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="214">
-        <v>0.5</v>
+      <c r="E8" s="208">
+        <v>0.3</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -33713,35 +33737,35 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="25" t="s">
+      <c r="L8" s="238" t="s">
         <v>22</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="62"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="60"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="25" t="s">
+      <c r="Q8" s="60"/>
+      <c r="R8" s="60"/>
+      <c r="S8" s="238" t="s">
         <v>7</v>
       </c>
-      <c r="T8" s="26" t="e">
+      <c r="T8" s="25" t="e">
         <f>P10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="63"/>
-      <c r="V8" s="62"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="60"/>
     </row>
     <row r="9" spans="2:22" ht="15">
-      <c r="C9" s="205" t="s">
+      <c r="C9" s="222" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="245" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="251">
+      <c r="E9" s="237">
         <f>1-E8</f>
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -33749,31 +33773,32 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="238" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="100">
+      <c r="M9" s="98">
         <f>M8*(1-M8)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="62"/>
+      <c r="N9" s="60"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
+      <c r="Q9" s="60"/>
+      <c r="R9" s="60"/>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
-      <c r="U9" s="63"/>
-      <c r="V9" s="62"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="60"/>
     </row>
     <row r="10" spans="2:22" ht="15">
-      <c r="C10" s="205" t="s">
+      <c r="C10" s="222" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="47" t="s">
+      <c r="D10" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="215">
+      <c r="E10" s="209">
+        <f>3/100</f>
         <v>0.03</v>
       </c>
       <c r="F10" s="3"/>
@@ -33782,110 +33807,110 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="25" t="s">
+      <c r="L10" s="238" t="s">
         <v>13</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="72" t="s">
+      <c r="M10" s="29"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="P10" s="165" t="e">
+      <c r="P10" s="163" t="e">
         <f>M6*SQRT(M9/M7)*SQRT((M10-M7)/(M10-1))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="64" t="s">
+      <c r="Q10" s="60"/>
+      <c r="R10" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="S10" s="65" t="e">
+      <c r="S10" s="63" t="e">
         <f>T7-T8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T10" s="65" t="e">
+      <c r="T10" s="63" t="e">
         <f>T7+T8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U10" s="92" t="s">
+      <c r="U10" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="V10" s="62"/>
+      <c r="V10" s="60"/>
     </row>
     <row r="11" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C11" s="206" t="s">
+      <c r="C11" s="239" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="49" t="s">
+      <c r="D11" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="216">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="94"/>
-      <c r="S11" s="95"/>
-      <c r="T11" s="95"/>
-      <c r="U11" s="96"/>
-      <c r="V11" s="62"/>
+      <c r="E11" s="210">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="80"/>
+      <c r="K11" s="80"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93"/>
+      <c r="U11" s="94"/>
+      <c r="V11" s="60"/>
     </row>
     <row r="12" spans="2:22" ht="7.5" customHeight="1" thickBot="1">
-      <c r="C12" s="97"/>
+      <c r="C12" s="95"/>
       <c r="E12" s="9"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="62"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="62"/>
-      <c r="V12" s="62"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
+      <c r="O12" s="60"/>
+      <c r="P12" s="60"/>
+      <c r="Q12" s="60"/>
+      <c r="R12" s="60"/>
+      <c r="S12" s="60"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="60"/>
+      <c r="V12" s="60"/>
     </row>
     <row r="13" spans="2:22" ht="15.75" thickBot="1">
-      <c r="C13" s="42"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="77"/>
-      <c r="U13" s="54"/>
-      <c r="V13" s="62"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
+      <c r="R13" s="51"/>
+      <c r="S13" s="51"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="52"/>
+      <c r="V13" s="60"/>
     </row>
     <row r="14" spans="2:22" ht="17.25" thickBot="1">
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="246" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="8">
         <f>((1.96)^2*E8*E9)/((E10)^2)</f>
-        <v>1067.1111111111111</v>
+        <v>896.37333333333322</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -33893,201 +33918,201 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="62"/>
-      <c r="O14" s="73" t="s">
+      <c r="L14" s="60"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="60"/>
+      <c r="O14" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="166" t="e">
+      <c r="P14" s="164" t="e">
         <f>M6*SQRT(M9/M7)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q14" s="62"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="25" t="s">
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="238" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="39"/>
-      <c r="U14" s="63"/>
-      <c r="V14" s="62"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="60"/>
     </row>
-    <row r="15" spans="2:22" s="38" customFormat="1" ht="15">
-      <c r="C15" s="78"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="74"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="74"/>
-      <c r="K15" s="74"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="62"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="25" t="s">
+    <row r="15" spans="2:22" s="37" customFormat="1" ht="15">
+      <c r="C15" s="76"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="72"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="60"/>
+      <c r="N15" s="60"/>
+      <c r="O15" s="60"/>
+      <c r="P15" s="60"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="238" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="26" t="e">
+      <c r="T15" s="25" t="e">
         <f>P14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" s="63"/>
-      <c r="V15" s="62"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="60"/>
     </row>
-    <row r="16" spans="2:22" s="38" customFormat="1" ht="15">
-      <c r="C16" s="78"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="74"/>
-      <c r="H16" s="74"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="74"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="62"/>
+    <row r="16" spans="2:22" s="37" customFormat="1" ht="15">
+      <c r="C16" s="76"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="60"/>
+      <c r="M16" s="60"/>
+      <c r="N16" s="60"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="72"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="82"/>
+      <c r="V16" s="60"/>
     </row>
-    <row r="17" spans="3:22" s="38" customFormat="1" ht="17.25" thickBot="1">
-      <c r="C17" s="79"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="82"/>
-      <c r="J17" s="82"/>
-      <c r="K17" s="82"/>
-      <c r="L17" s="230"/>
-      <c r="M17" s="230"/>
-      <c r="N17" s="230"/>
-      <c r="O17" s="230"/>
-      <c r="P17" s="230"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="86" t="s">
+    <row r="17" spans="3:22" s="37" customFormat="1" ht="17.25" thickBot="1">
+      <c r="C17" s="77"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="255"/>
+      <c r="M17" s="255"/>
+      <c r="N17" s="255"/>
+      <c r="O17" s="255"/>
+      <c r="P17" s="255"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="S17" s="87" t="e">
+      <c r="S17" s="85" t="e">
         <f>T14-T15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T17" s="87" t="e">
+      <c r="T17" s="85" t="e">
         <f>T14+T15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U17" s="88" t="s">
+      <c r="U17" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="V17" s="83"/>
+      <c r="V17" s="81"/>
     </row>
-    <row r="18" spans="3:22" s="38" customFormat="1" ht="7.5" customHeight="1">
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="74"/>
-      <c r="P18" s="74"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
+    <row r="18" spans="3:22" s="37" customFormat="1" ht="7.5" customHeight="1">
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="36"/>
+      <c r="L18" s="53"/>
+      <c r="M18" s="53"/>
+      <c r="N18" s="53"/>
+      <c r="O18" s="72"/>
+      <c r="P18" s="72"/>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="53"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="53"/>
+      <c r="U18" s="53"/>
+      <c r="V18" s="53"/>
     </row>
     <row r="19" spans="3:22" ht="16.5">
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="28" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="4"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
+      <c r="L19" s="53"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
     </row>
     <row r="20" spans="3:22" ht="16.5">
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
+      <c r="L20" s="53"/>
+      <c r="M20" s="53"/>
+      <c r="N20" s="53"/>
+      <c r="O20" s="53"/>
+      <c r="P20" s="53"/>
+      <c r="Q20" s="53"/>
+      <c r="R20" s="53"/>
+      <c r="S20" s="53"/>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
     </row>
     <row r="21" spans="3:22" ht="16.5">
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="V21" s="55"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="53"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="53"/>
+      <c r="V21" s="53"/>
     </row>
     <row r="22" spans="3:22" ht="16.5">
-      <c r="C22" s="28" t="s">
+      <c r="C22" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
+      <c r="L22" s="53"/>
+      <c r="M22" s="53"/>
+      <c r="N22" s="53"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+      <c r="Q22" s="53"/>
+      <c r="R22" s="53"/>
+      <c r="S22" s="53"/>
+      <c r="T22" s="53"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
     </row>
     <row r="23" spans="3:22" ht="16.5">
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
+      <c r="L23" s="53"/>
+      <c r="M23" s="53"/>
+      <c r="N23" s="53"/>
+      <c r="O23" s="53"/>
+      <c r="P23" s="53"/>
+      <c r="Q23" s="53"/>
+      <c r="R23" s="53"/>
+      <c r="S23" s="53"/>
+      <c r="T23" s="53"/>
+      <c r="U23" s="53"/>
+      <c r="V23" s="53"/>
     </row>
     <row r="24" spans="3:22">
-      <c r="E24" s="226"/>
+      <c r="E24" s="220"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
@@ -34148,22 +34173,22 @@
   <sheetData>
     <row r="3" spans="2:19" ht="13.5" thickBot="1"/>
     <row r="4" spans="2:19" ht="13.5" thickBot="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="104" t="s">
+      <c r="F4" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="106" t="s">
+      <c r="G4" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="106" t="s">
         <v>32</v>
       </c>
       <c r="N4" s="13"/>
@@ -34174,30 +34199,30 @@
       <c r="S4" s="15"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="48">
         <v>1.645</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="103">
         <v>1</v>
       </c>
-      <c r="G5" s="102">
+      <c r="G5" s="100">
         <v>5000</v>
       </c>
-      <c r="H5" s="117">
+      <c r="H5" s="115">
         <f>G5/$G$8</f>
         <v>0.5</v>
       </c>
-      <c r="I5" s="125">
+      <c r="I5" s="123">
         <f>H5</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="172">
+      <c r="J5" s="170">
         <v>120</v>
       </c>
       <c r="N5" s="13"/>
@@ -34207,30 +34232,30 @@
       <c r="S5" s="16"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="101">
+      <c r="D6" s="99">
         <v>250</v>
       </c>
-      <c r="F6" s="105">
+      <c r="F6" s="103">
         <v>2</v>
       </c>
-      <c r="G6" s="102">
+      <c r="G6" s="100">
         <v>3000</v>
       </c>
-      <c r="H6" s="117">
+      <c r="H6" s="115">
         <f t="shared" ref="H6:H7" si="0">G6/$G$8</f>
         <v>0.3</v>
       </c>
-      <c r="I6" s="125">
+      <c r="I6" s="123">
         <f t="shared" ref="I6:I7" si="1">H6</f>
         <v>0.3</v>
       </c>
-      <c r="J6" s="172">
+      <c r="J6" s="170">
         <v>170</v>
       </c>
       <c r="N6" s="13"/>
@@ -34240,31 +34265,31 @@
       <c r="S6" s="16"/>
     </row>
     <row r="7" spans="2:19" ht="13.5" thickBot="1">
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="49">
         <f>G8</f>
         <v>10000</v>
       </c>
-      <c r="F7" s="105">
+      <c r="F7" s="103">
         <v>3</v>
       </c>
-      <c r="G7" s="102">
+      <c r="G7" s="100">
         <v>2000</v>
       </c>
-      <c r="H7" s="117">
+      <c r="H7" s="115">
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="I7" s="125">
+      <c r="I7" s="123">
         <f t="shared" si="1"/>
         <v>0.2</v>
       </c>
-      <c r="J7" s="172">
+      <c r="J7" s="170">
         <v>230</v>
       </c>
       <c r="N7" s="13"/>
@@ -34274,7 +34299,7 @@
       <c r="S7" s="16"/>
     </row>
     <row r="8" spans="2:19" ht="13.5" thickBot="1">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -34284,21 +34309,21 @@
         <f>((D5^2)*((G5*J5+G6*J6+G7*J7)^2))/(((D6^2)*G8)+((D5^2)*(G5*(J5^2)+G6*(J6^2)+G7*(J7^2))))</f>
         <v>4974.9116537372274</v>
       </c>
-      <c r="F8" s="104" t="s">
+      <c r="F8" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="107">
         <f>SUM(G5:G7)</f>
         <v>10000</v>
       </c>
-      <c r="H8" s="124">
+      <c r="H8" s="122">
         <f>SUM(H5:H7)</f>
         <v>1</v>
       </c>
-      <c r="I8" s="126">
+      <c r="I8" s="124">
         <v>1</v>
       </c>
-      <c r="J8" s="173"/>
+      <c r="J8" s="171"/>
       <c r="N8" s="13"/>
       <c r="O8" s="14"/>
       <c r="P8" s="14"/>
@@ -34328,12 +34353,12 @@
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="2:19">
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="114"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="2:19">
@@ -34341,141 +34366,141 @@
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="6:21" ht="13.5" thickBot="1">
-      <c r="F17" s="115" t="s">
+      <c r="F17" s="113" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="115"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="113"/>
+      <c r="K17" s="113"/>
       <c r="L17" s="20"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="6:21" ht="13.5" thickBot="1">
-      <c r="F18" s="104" t="s">
+      <c r="F18" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="106" t="s">
+      <c r="G18" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="108" t="s">
+      <c r="H18" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="106"/>
-      <c r="J18" s="118" t="s">
+      <c r="I18" s="104"/>
+      <c r="J18" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="107" t="s">
+      <c r="K18" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="L18" s="127" t="s">
+      <c r="L18" s="125" t="s">
         <v>38</v>
       </c>
-      <c r="M18" s="130" t="s">
+      <c r="M18" s="128" t="s">
         <v>39</v>
       </c>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="6:21">
-      <c r="F19" s="105">
+      <c r="F19" s="103">
         <v>1</v>
       </c>
-      <c r="G19" s="116">
+      <c r="G19" s="114">
         <v>5000</v>
       </c>
-      <c r="H19" s="125">
+      <c r="H19" s="123">
         <v>0.5</v>
       </c>
-      <c r="I19" s="117"/>
-      <c r="J19" s="103">
+      <c r="I19" s="115"/>
+      <c r="J19" s="101">
         <v>128</v>
       </c>
       <c r="K19" s="10">
         <v>1112.7202212494806</v>
       </c>
-      <c r="L19" s="128">
+      <c r="L19" s="126">
         <v>250</v>
       </c>
-      <c r="M19" s="131">
+      <c r="M19" s="129">
         <f>((H19)^2)*((J19^2)/K19)*((G19-K19)/(G19-1))</f>
         <v>2.8624415672959334</v>
       </c>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="6:21">
-      <c r="F20" s="105">
+      <c r="F20" s="103">
         <v>2</v>
       </c>
-      <c r="G20" s="116">
+      <c r="G20" s="114">
         <v>3000</v>
       </c>
-      <c r="H20" s="125">
+      <c r="H20" s="123">
         <v>0.3</v>
       </c>
-      <c r="I20" s="117"/>
-      <c r="J20" s="103">
+      <c r="I20" s="115"/>
+      <c r="J20" s="101">
         <v>183</v>
       </c>
       <c r="K20" s="10">
         <v>667.63213274968837</v>
       </c>
-      <c r="L20" s="128">
+      <c r="L20" s="126">
         <v>350</v>
       </c>
-      <c r="M20" s="132">
+      <c r="M20" s="130">
         <f>((H20)^2)*((J20^2)/K20)*((G20-K20)/(G20-1))</f>
         <v>3.5109774639821207</v>
       </c>
       <c r="N20" s="3"/>
     </row>
     <row r="21" spans="6:21" ht="13.5" thickBot="1">
-      <c r="F21" s="105">
+      <c r="F21" s="103">
         <v>3</v>
       </c>
-      <c r="G21" s="116">
+      <c r="G21" s="114">
         <v>2000</v>
       </c>
-      <c r="H21" s="125">
+      <c r="H21" s="123">
         <v>0.2</v>
       </c>
-      <c r="I21" s="117"/>
-      <c r="J21" s="103">
+      <c r="I21" s="115"/>
+      <c r="J21" s="101">
         <v>242</v>
       </c>
       <c r="K21" s="10">
         <v>445.08808849979226</v>
       </c>
-      <c r="L21" s="128">
+      <c r="L21" s="126">
         <v>450</v>
       </c>
-      <c r="M21" s="174">
+      <c r="M21" s="172">
         <f>((H21)^2)*((J21^2)/K21)*((G21-K21)/(G21-1))</f>
         <v>4.0939048807003511</v>
       </c>
       <c r="N21" s="3"/>
     </row>
     <row r="22" spans="6:21" ht="13.5" thickBot="1">
-      <c r="F22" s="104" t="s">
+      <c r="F22" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G22" s="109">
+      <c r="G22" s="107">
         <v>10000</v>
       </c>
-      <c r="H22" s="126">
+      <c r="H22" s="124">
         <v>1</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="111">
+      <c r="K22" s="109">
         <f>SUM(K19:K21)</f>
         <v>2225.4404424989611</v>
       </c>
-      <c r="L22" s="129">
+      <c r="L22" s="127">
         <f>L19*H19+H20*L20+H21*L21</f>
         <v>320</v>
       </c>
-      <c r="M22" s="175">
+      <c r="M22" s="173">
         <f>SUM(M19:M21)</f>
         <v>10.467323911978404</v>
       </c>
@@ -34484,47 +34509,47 @@
     <row r="23" spans="6:21">
       <c r="M23" s="18"/>
       <c r="O23" s="3"/>
-      <c r="U23" s="114"/>
+      <c r="U23" s="112"/>
     </row>
     <row r="24" spans="6:21">
-      <c r="M24" s="164"/>
+      <c r="M24" s="162"/>
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="6:21">
-      <c r="M25" s="123"/>
+      <c r="M25" s="121"/>
     </row>
     <row r="26" spans="6:21" ht="13.5">
-      <c r="L26" s="161" t="s">
+      <c r="L26" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="162">
+      <c r="M26" s="160">
         <f>SQRT(M22)</f>
         <v>3.2353243905331044</v>
       </c>
     </row>
     <row r="27" spans="6:21" ht="13.5">
-      <c r="L27" s="161" t="s">
+      <c r="L27" s="159" t="s">
         <v>9</v>
       </c>
-      <c r="M27" s="162">
+      <c r="M27" s="160">
         <f>M26*1.645</f>
         <v>5.3221086224269571</v>
       </c>
     </row>
     <row r="28" spans="6:21" ht="13.5">
-      <c r="L28" s="177" t="s">
+      <c r="L28" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="M28" s="178">
+      <c r="M28" s="176">
         <f>L22-M27</f>
         <v>314.67789137757302</v>
       </c>
-      <c r="O28" s="133"/>
-      <c r="P28" s="133"/>
+      <c r="O28" s="131"/>
+      <c r="P28" s="131"/>
     </row>
     <row r="29" spans="6:21" ht="13.5">
-      <c r="L29" s="176"/>
-      <c r="M29" s="178">
+      <c r="L29" s="174"/>
+      <c r="M29" s="176">
         <f>L22+M27</f>
         <v>325.32210862242698</v>
       </c>
@@ -34543,7 +34568,7 @@
   <dimension ref="C3:O28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -34551,7 +34576,7 @@
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
     <col min="5" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
@@ -34567,186 +34592,186 @@
   <sheetData>
     <row r="3" spans="3:15" ht="13.5" thickBot="1"/>
     <row r="4" spans="3:15" ht="13.5" thickBot="1">
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="149" t="s">
+      <c r="G4" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="149" t="s">
+      <c r="H4" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="130" t="s">
+      <c r="J4" s="128" t="s">
         <v>43</v>
       </c>
       <c r="K4" s="15"/>
-      <c r="L4" s="159" t="s">
+      <c r="L4" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="160">
+      <c r="M4" s="158">
         <v>1.96</v>
       </c>
-      <c r="N4" s="193" t="s">
+      <c r="N4" s="191" t="s">
         <v>45</v>
       </c>
-      <c r="O4" s="194">
+      <c r="O4" s="192">
         <f>G8-(M4*M5)</f>
         <v>3748.0286315811582</v>
       </c>
     </row>
     <row r="5" spans="3:15" ht="16.5">
-      <c r="C5" s="169" t="s">
+      <c r="C5" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="102">
+      <c r="D5" s="100">
         <v>1000</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="115">
         <f>D5/$D$8</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="F5" s="125">
+      <c r="F5" s="123">
         <f>E5</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="G5" s="150">
+      <c r="G5" s="148">
         <v>12000</v>
       </c>
-      <c r="H5" s="152">
+      <c r="H5" s="150">
         <v>96</v>
       </c>
-      <c r="I5" s="157">
+      <c r="I5" s="155">
         <v>200</v>
       </c>
-      <c r="J5" s="131">
+      <c r="J5" s="129">
         <f>((F5)^2)*((I5^2)/H5)*((D5-H5)/(D5-1))</f>
         <v>10.473436399362326</v>
       </c>
-      <c r="L5" s="190" t="s">
+      <c r="L5" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="191">
+      <c r="M5" s="189">
         <f>K8</f>
         <v>5.2575008939666681</v>
       </c>
-      <c r="N5" s="114"/>
-      <c r="O5" s="194">
+      <c r="N5" s="112"/>
+      <c r="O5" s="192">
         <f>G8+(M4*M5)</f>
         <v>3768.6380350855079</v>
       </c>
     </row>
     <row r="6" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="102">
+      <c r="D6" s="100">
         <v>2000</v>
       </c>
-      <c r="E6" s="117">
+      <c r="E6" s="115">
         <f t="shared" ref="E6:E7" si="0">D6/$D$8</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F6" s="125">
+      <c r="F6" s="123">
         <f t="shared" ref="F6:F7" si="1">E6</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G6" s="150">
+      <c r="G6" s="148">
         <v>4000</v>
       </c>
-      <c r="H6" s="152">
+      <c r="H6" s="150">
         <v>198</v>
       </c>
-      <c r="I6" s="157">
+      <c r="I6" s="155">
         <v>50</v>
       </c>
-      <c r="J6" s="132">
+      <c r="J6" s="130">
         <f>((F6)^2)*((I6^2)/H6)*((D6-H6)/(D6-1))</f>
         <v>1.2646615114515729</v>
       </c>
-      <c r="L6" s="190" t="s">
+      <c r="L6" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="191">
+      <c r="M6" s="189">
         <f>M4*M5</f>
         <v>10.304701752174669</v>
       </c>
-      <c r="N6" s="114"/>
-      <c r="O6" s="114"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
     </row>
     <row r="7" spans="3:15" ht="17.25" thickBot="1">
-      <c r="C7" s="171" t="s">
+      <c r="C7" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="154">
+      <c r="D7" s="152">
         <v>3000</v>
       </c>
-      <c r="E7" s="155">
+      <c r="E7" s="153">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="F7" s="156">
+      <c r="F7" s="154">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G7" s="151">
+      <c r="G7" s="149">
         <v>850</v>
       </c>
-      <c r="H7" s="153">
+      <c r="H7" s="151">
         <v>65</v>
       </c>
-      <c r="I7" s="158">
+      <c r="I7" s="156">
         <v>65</v>
       </c>
-      <c r="J7" s="119">
+      <c r="J7" s="117">
         <f>((F7)^2)*((I7^2)/H7)*((D7-H7)/(D7-1))</f>
         <v>15.903217739246415</v>
       </c>
-      <c r="K7" s="195" t="s">
+      <c r="K7" s="193" t="s">
         <v>49</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="3:15" ht="13.5" thickBot="1">
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="109">
+      <c r="D8" s="107">
         <f>SUM(D5:D7)</f>
         <v>6000</v>
       </c>
-      <c r="E8" s="124">
+      <c r="E8" s="122">
         <f>SUM(E5:E7)</f>
         <v>1</v>
       </c>
-      <c r="F8" s="126">
+      <c r="F8" s="124">
         <v>1</v>
       </c>
-      <c r="G8" s="148">
+      <c r="G8" s="146">
         <f>G5*F5+F6*G6+F7*G7</f>
         <v>3758.333333333333</v>
       </c>
-      <c r="H8" s="185">
+      <c r="H8" s="183">
         <f>SUM(H5:H7)</f>
         <v>359</v>
       </c>
-      <c r="J8" s="120">
+      <c r="J8" s="118">
         <f>SUM(J5:J7)</f>
         <v>27.641315650060314</v>
       </c>
-      <c r="K8" s="196">
+      <c r="K8" s="194">
         <f>SQRT(J8)</f>
         <v>5.2575008939666681</v>
       </c>
@@ -34770,74 +34795,74 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="3:15">
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="3:15" s="134" customFormat="1"/>
-    <row r="17" spans="3:15" s="134" customFormat="1">
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
+    <row r="16" spans="3:15" s="132" customFormat="1"/>
+    <row r="17" spans="3:15" s="132" customFormat="1">
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
     </row>
-    <row r="18" spans="3:15" s="134" customFormat="1">
-      <c r="C18" s="136"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
+    <row r="18" spans="3:15" s="132" customFormat="1">
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
     </row>
-    <row r="19" spans="3:15" s="134" customFormat="1">
-      <c r="C19" s="136"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="140"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142"/>
+    <row r="19" spans="3:15" s="132" customFormat="1">
+      <c r="C19" s="134"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="138"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
     </row>
-    <row r="20" spans="3:15" s="134" customFormat="1">
-      <c r="C20" s="136"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="140"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="142"/>
+    <row r="20" spans="3:15" s="132" customFormat="1">
+      <c r="C20" s="134"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="138"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="140"/>
     </row>
-    <row r="21" spans="3:15" s="134" customFormat="1">
-      <c r="C21" s="136"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="140"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="142"/>
+    <row r="21" spans="3:15" s="132" customFormat="1">
+      <c r="C21" s="134"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="138"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="140"/>
     </row>
-    <row r="22" spans="3:15" s="134" customFormat="1">
-      <c r="C22" s="136"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="144"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
-      <c r="L22" s="147"/>
+    <row r="22" spans="3:15" s="132" customFormat="1">
+      <c r="C22" s="134"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="142"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="144"/>
+      <c r="L22" s="145"/>
     </row>
-    <row r="23" spans="3:15" s="134" customFormat="1">
-      <c r="O23" s="135"/>
+    <row r="23" spans="3:15" s="132" customFormat="1">
+      <c r="O23" s="133"/>
     </row>
-    <row r="24" spans="3:15" s="134" customFormat="1"/>
+    <row r="24" spans="3:15" s="132" customFormat="1"/>
     <row r="28" spans="3:15">
-      <c r="J28" s="133"/>
+      <c r="J28" s="131"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
@@ -34852,7 +34877,7 @@
   <dimension ref="C3:Q28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -34860,7 +34885,7 @@
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -34876,184 +34901,184 @@
   <sheetData>
     <row r="3" spans="3:17" ht="13.5" thickBot="1"/>
     <row r="4" spans="3:17" ht="13.5" thickBot="1">
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="106" t="s">
+      <c r="D4" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="149" t="s">
+      <c r="G4" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="149" t="s">
+      <c r="H4" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="149" t="s">
+      <c r="I4" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="121" t="s">
+      <c r="J4" s="119" t="s">
         <v>50</v>
       </c>
       <c r="K4" s="15"/>
-      <c r="L4" s="159" t="s">
+      <c r="L4" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="160">
+      <c r="M4" s="158">
         <v>1.96</v>
       </c>
-      <c r="N4" s="193" t="s">
+      <c r="N4" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="194">
+      <c r="O4" s="192">
         <f>G8-(M4*M5)</f>
         <v>2578.0107916247507</v>
       </c>
     </row>
     <row r="5" spans="3:17" ht="16.5">
-      <c r="C5" s="169" t="s">
+      <c r="C5" s="247" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="102">
+      <c r="D5" s="100">
         <v>200000</v>
       </c>
-      <c r="E5" s="117">
+      <c r="E5" s="115">
         <f>D5/$D$8</f>
         <v>0.12820512820512819</v>
       </c>
-      <c r="F5" s="125">
+      <c r="F5" s="123">
         <f>E5</f>
         <v>0.12820512820512819</v>
       </c>
-      <c r="G5" s="150">
+      <c r="G5" s="148">
         <v>8200</v>
       </c>
-      <c r="H5" s="152">
+      <c r="H5" s="150">
         <v>256</v>
       </c>
-      <c r="I5" s="157">
+      <c r="I5" s="155">
         <v>1500</v>
       </c>
-      <c r="J5" s="122">
+      <c r="J5" s="120">
         <f>D5*((I5^2)/H5)*(D5-H5)/($D$8^2)</f>
         <v>144.27699704142012</v>
       </c>
-      <c r="L5" s="190" t="s">
+      <c r="L5" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="191">
+      <c r="M5" s="189">
         <f>K8</f>
         <v>13.91717852740344</v>
       </c>
-      <c r="N5" s="114"/>
-      <c r="O5" s="194">
+      <c r="N5" s="112"/>
+      <c r="O5" s="192">
         <f>G8+(M4*M5)</f>
         <v>2632.5661314521722</v>
       </c>
     </row>
     <row r="6" spans="3:17" ht="17.25" thickBot="1">
-      <c r="C6" s="170" t="s">
+      <c r="C6" s="248" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="102">
+      <c r="D6" s="100">
         <v>475000</v>
       </c>
-      <c r="E6" s="117">
+      <c r="E6" s="115">
         <f t="shared" ref="E6:E7" si="0">D6/$D$8</f>
         <v>0.30448717948717946</v>
       </c>
-      <c r="F6" s="125">
+      <c r="F6" s="123">
         <f t="shared" ref="F6:F7" si="1">E6</f>
         <v>0.30448717948717946</v>
       </c>
-      <c r="G6" s="150">
+      <c r="G6" s="148">
         <v>3520</v>
       </c>
-      <c r="H6" s="152">
+      <c r="H6" s="150">
         <v>608</v>
       </c>
-      <c r="I6" s="157">
+      <c r="I6" s="155">
         <v>500</v>
       </c>
-      <c r="J6" s="122">
+      <c r="J6" s="120">
         <f>D6*((I6^2)/H6)*(D6-H6)/($D$8^2)</f>
         <v>38.073096441485866</v>
       </c>
-      <c r="L6" s="190" t="s">
+      <c r="L6" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="191">
+      <c r="M6" s="189">
         <f>M4*M5</f>
         <v>27.277669913710742</v>
       </c>
     </row>
     <row r="7" spans="3:17" ht="17.25" thickBot="1">
-      <c r="C7" s="171" t="s">
+      <c r="C7" s="249" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="154">
+      <c r="D7" s="152">
         <v>885000</v>
       </c>
-      <c r="E7" s="155">
+      <c r="E7" s="153">
         <f t="shared" si="0"/>
         <v>0.56730769230769229</v>
       </c>
-      <c r="F7" s="156">
+      <c r="F7" s="154">
         <f t="shared" si="1"/>
         <v>0.56730769230769229</v>
       </c>
-      <c r="G7" s="151">
+      <c r="G7" s="149">
         <v>850</v>
       </c>
-      <c r="H7" s="153">
+      <c r="H7" s="151">
         <v>1134</v>
       </c>
-      <c r="I7" s="158">
+      <c r="I7" s="156">
         <v>200</v>
       </c>
-      <c r="J7" s="122">
+      <c r="J7" s="120">
         <f>D7*((I7^2)/H7)*(D7-H7)/($D$8^2)</f>
         <v>11.3377646807134</v>
       </c>
-      <c r="K7" s="195" t="s">
+      <c r="K7" s="193" t="s">
         <v>49</v>
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
     </row>
     <row r="8" spans="3:17" ht="13.5" thickBot="1">
-      <c r="C8" s="104" t="s">
+      <c r="C8" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="109">
+      <c r="D8" s="107">
         <f>SUM(D5:D7)</f>
         <v>1560000</v>
       </c>
-      <c r="E8" s="124">
+      <c r="E8" s="122">
         <f>SUM(E5:E7)</f>
         <v>1</v>
       </c>
-      <c r="F8" s="126">
+      <c r="F8" s="124">
         <v>1</v>
       </c>
-      <c r="G8" s="148">
+      <c r="G8" s="146">
         <f>G5*F5+F6*G6+F7*G7</f>
         <v>2605.2884615384614</v>
       </c>
-      <c r="H8" s="185">
+      <c r="H8" s="183">
         <f>SUM(H5:H7)</f>
         <v>1998</v>
       </c>
-      <c r="J8" s="163">
+      <c r="J8" s="161">
         <f>SUM(J5:J7)</f>
         <v>193.68785816361938</v>
       </c>
-      <c r="K8" s="196">
+      <c r="K8" s="194">
         <f>SQRT(J8)</f>
         <v>13.91717852740344</v>
       </c>
@@ -35077,95 +35102,95 @@
       <c r="H14" s="3"/>
     </row>
     <row r="15" spans="3:17">
-      <c r="C15" s="114"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="3:17" s="134" customFormat="1">
+    <row r="16" spans="3:17" s="132" customFormat="1">
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
       <c r="Q16"/>
     </row>
-    <row r="17" spans="3:17" s="134" customFormat="1">
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="135"/>
+    <row r="17" spans="3:17" s="132" customFormat="1">
+      <c r="C17" s="133"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="133"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
     </row>
-    <row r="18" spans="3:17" s="134" customFormat="1">
-      <c r="C18" s="136"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="137"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="135"/>
+    <row r="18" spans="3:17" s="132" customFormat="1">
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
       <c r="Q18"/>
     </row>
-    <row r="19" spans="3:17" s="134" customFormat="1">
-      <c r="C19" s="136"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="140"/>
-      <c r="I19" s="141"/>
-      <c r="J19" s="142"/>
+    <row r="19" spans="3:17" s="132" customFormat="1">
+      <c r="C19" s="134"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="138"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
     </row>
-    <row r="20" spans="3:17" s="134" customFormat="1">
-      <c r="C20" s="136"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="140"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="142"/>
+    <row r="20" spans="3:17" s="132" customFormat="1">
+      <c r="C20" s="134"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="138"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="140"/>
     </row>
-    <row r="21" spans="3:17" s="134" customFormat="1">
-      <c r="C21" s="136"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="140"/>
-      <c r="I21" s="141"/>
-      <c r="J21" s="142"/>
+    <row r="21" spans="3:17" s="132" customFormat="1">
+      <c r="C21" s="134"/>
+      <c r="D21" s="136"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
+      <c r="G21" s="138"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="140"/>
     </row>
-    <row r="22" spans="3:17" s="134" customFormat="1">
-      <c r="C22" s="136"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="144"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
-      <c r="L22" s="147"/>
+    <row r="22" spans="3:17" s="132" customFormat="1">
+      <c r="C22" s="134"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="142"/>
+      <c r="I22" s="143"/>
+      <c r="J22" s="144"/>
+      <c r="L22" s="145"/>
     </row>
-    <row r="23" spans="3:17" s="134" customFormat="1">
-      <c r="O23" s="135"/>
+    <row r="23" spans="3:17" s="132" customFormat="1">
+      <c r="O23" s="133"/>
     </row>
-    <row r="24" spans="3:17" s="134" customFormat="1"/>
+    <row r="24" spans="3:17" s="132" customFormat="1"/>
     <row r="28" spans="3:17">
-      <c r="J28" s="133"/>
+      <c r="J28" s="131"/>
     </row>
   </sheetData>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
@@ -35180,7 +35205,7 @@
   <dimension ref="B1:T14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:K6"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -35210,29 +35235,29 @@
   <sheetData>
     <row r="1" spans="2:20" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="256" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="232"/>
-      <c r="F2" s="104" t="s">
+      <c r="D2" s="257"/>
+      <c r="F2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="106" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="13"/>
@@ -35244,21 +35269,21 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="2:20" ht="15">
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="209" t="s">
+      <c r="C3" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="212">
-        <v>0.9</v>
-      </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="219"/>
+      <c r="D3" s="206">
+        <v>0.95</v>
+      </c>
+      <c r="F3" s="103"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="213"/>
       <c r="M3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
@@ -35268,36 +35293,36 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="2:20" ht="15">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="213">
+      <c r="D4" s="207">
         <f>_xlfn.NORM.S.INV(D3+(1-D3)/2)</f>
-        <v>1.6448536269514715</v>
-      </c>
-      <c r="F4" s="105">
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="F4" s="103">
         <v>1</v>
       </c>
-      <c r="G4" s="102">
-        <v>5000</v>
-      </c>
-      <c r="H4" s="179">
+      <c r="G4" s="100">
+        <v>200</v>
+      </c>
+      <c r="H4" s="177">
         <f>G4/$G$7</f>
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="103">
-        <v>120</v>
-      </c>
-      <c r="J4" s="224">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="I4" s="101">
+        <v>300</v>
+      </c>
+      <c r="J4" s="218">
         <f>(G4/$G$7)*$D$7</f>
-        <v>1112.7202212494806</v>
-      </c>
-      <c r="K4" s="225">
+        <v>86.572504409721688</v>
+      </c>
+      <c r="K4" s="219">
         <f>J4/$J$7</f>
-        <v>0.5</v>
+        <v>5.4054054054054057E-2</v>
       </c>
       <c r="M4" s="13"/>
       <c r="O4" s="13"/>
@@ -35307,35 +35332,35 @@
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="99">
         <v>5</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="103">
         <v>2</v>
       </c>
-      <c r="G5" s="102">
-        <v>3000</v>
-      </c>
-      <c r="H5" s="179">
+      <c r="G5" s="100">
+        <v>500</v>
+      </c>
+      <c r="H5" s="177">
         <f t="shared" ref="H5:H6" si="0">G5/$G$7</f>
-        <v>0.3</v>
-      </c>
-      <c r="I5" s="103">
-        <v>170</v>
-      </c>
-      <c r="J5" s="224">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="I5" s="101">
+        <v>200</v>
+      </c>
+      <c r="J5" s="218">
         <f t="shared" ref="J5:J6" si="1">(G5/$G$7)*$D$7</f>
-        <v>667.63213274968837</v>
-      </c>
-      <c r="K5" s="225">
+        <v>216.43126102430423</v>
+      </c>
+      <c r="K5" s="219">
         <f t="shared" ref="K5:K6" si="2">J5/$J$7</f>
-        <v>0.3</v>
+        <v>0.13513513513513514</v>
       </c>
       <c r="M5" s="13"/>
       <c r="O5" s="13"/>
@@ -35345,36 +35370,35 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="221">
-        <f>G7</f>
-        <v>10000</v>
-      </c>
-      <c r="F6" s="105">
+      <c r="D6" s="215">
+        <v>3700</v>
+      </c>
+      <c r="F6" s="103">
         <v>3</v>
       </c>
-      <c r="G6" s="102">
-        <v>2000</v>
-      </c>
-      <c r="H6" s="179">
+      <c r="G6" s="100">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="177">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="103">
-        <v>230</v>
-      </c>
-      <c r="J6" s="224">
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="I6" s="101">
+        <v>100</v>
+      </c>
+      <c r="J6" s="218">
         <f t="shared" si="1"/>
-        <v>445.08808849979226</v>
-      </c>
-      <c r="K6" s="225">
+        <v>1298.5875661458253</v>
+      </c>
+      <c r="K6" s="219">
         <f t="shared" si="2"/>
-        <v>0.2</v>
+        <v>0.81081081081081086</v>
       </c>
       <c r="M6" s="13"/>
       <c r="O6" s="13"/>
@@ -35384,7 +35408,7 @@
       <c r="T6" s="16"/>
     </row>
     <row r="7" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -35392,24 +35416,24 @@
       </c>
       <c r="D7" s="8">
         <f>(D6*((G4*(I4^2))+(G5*(I5^2))+(G6*(I6^2))))/(((D6^2)*((D5/D4)^2))+(((G4*(I4^2))+(G5*(I5^2))+(G6*(I6^2)))))</f>
-        <v>2225.4404424989611</v>
-      </c>
-      <c r="F7" s="104" t="s">
+        <v>1601.5913315798512</v>
+      </c>
+      <c r="F7" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="109">
+      <c r="G7" s="107">
         <f>SUM(G4:G6)</f>
-        <v>10000</v>
-      </c>
-      <c r="H7" s="109">
+        <v>3700</v>
+      </c>
+      <c r="H7" s="107">
         <v>1</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="112">
+      <c r="I7" s="108"/>
+      <c r="J7" s="110">
         <f>SUM(J4:J6)</f>
-        <v>2225.4404424989611</v>
-      </c>
-      <c r="K7" s="113"/>
+        <v>1601.5913315798512</v>
+      </c>
+      <c r="K7" s="111"/>
       <c r="M7" s="13"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -35440,13 +35464,13 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
       <c r="O14" s="3"/>
     </row>
   </sheetData>
@@ -35464,8 +35488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:T14"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -35495,29 +35519,29 @@
   <sheetData>
     <row r="1" spans="2:20" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="256" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="232"/>
-      <c r="F2" s="104" t="s">
+      <c r="D2" s="257"/>
+      <c r="F2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="106" t="s">
         <v>57</v>
       </c>
       <c r="M2" s="13"/>
@@ -35529,21 +35553,21 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="2:20" ht="15">
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="209" t="s">
+      <c r="C3" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="212">
+      <c r="D3" s="206">
         <v>0.9</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="219"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="213"/>
       <c r="M3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
@@ -35553,36 +35577,36 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="2:20" ht="15">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="213">
+      <c r="D4" s="207">
         <f>_xlfn.NORM.S.INV(D3+(1-D3)/2)</f>
         <v>1.6448536269514715</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="103">
         <v>1</v>
       </c>
-      <c r="G4" s="102">
-        <v>5000</v>
-      </c>
-      <c r="H4" s="179">
+      <c r="G4" s="100">
+        <v>200</v>
+      </c>
+      <c r="H4" s="177">
         <f>G4/$G$7</f>
-        <v>0.5</v>
-      </c>
-      <c r="I4" s="103">
-        <v>120</v>
-      </c>
-      <c r="J4" s="224">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="I4" s="101">
+        <v>300</v>
+      </c>
+      <c r="J4" s="218">
         <f>(G4*I4/($G$4*$I$4+$G$5*$I$5+$G$6*$I$6))*$D$7</f>
-        <v>792.57652054216328</v>
-      </c>
-      <c r="K4" s="225">
+        <v>141.90264987523531</v>
+      </c>
+      <c r="K4" s="219">
         <f>J4/$J$7</f>
-        <v>0.38216560509554143</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="M4" s="13"/>
       <c r="O4" s="13"/>
@@ -35592,35 +35616,35 @@
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="99">
         <v>5</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="103">
         <v>2</v>
       </c>
-      <c r="G5" s="102">
-        <v>3000</v>
-      </c>
-      <c r="H5" s="179">
+      <c r="G5" s="100">
+        <v>500</v>
+      </c>
+      <c r="H5" s="177">
         <f t="shared" ref="H5:H6" si="0">G5/$G$7</f>
-        <v>0.3</v>
-      </c>
-      <c r="I5" s="103">
-        <v>170</v>
-      </c>
-      <c r="J5" s="224">
+        <v>0.13513513513513514</v>
+      </c>
+      <c r="I5" s="101">
+        <v>200</v>
+      </c>
+      <c r="J5" s="218">
         <f t="shared" ref="J5:J6" si="1">(G5*I5/($G$4*$I$4+$G$5*$I$5+$G$6*$I$6))*$D$7</f>
-        <v>673.69004246083864</v>
-      </c>
-      <c r="K5" s="225">
+        <v>236.50441645872553</v>
+      </c>
+      <c r="K5" s="219">
         <f>J5/$J$7</f>
-        <v>0.32484076433121017</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="M5" s="13"/>
       <c r="O5" s="13"/>
@@ -35630,36 +35654,36 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="221">
+      <c r="D6" s="215">
         <f>G7</f>
-        <v>10000</v>
-      </c>
-      <c r="F6" s="105">
+        <v>3700</v>
+      </c>
+      <c r="F6" s="103">
         <v>3</v>
       </c>
-      <c r="G6" s="102">
-        <v>2000</v>
-      </c>
-      <c r="H6" s="179">
+      <c r="G6" s="100">
+        <v>3000</v>
+      </c>
+      <c r="H6" s="177">
         <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="I6" s="103">
-        <v>230</v>
-      </c>
-      <c r="J6" s="224">
+        <v>0.81081081081081086</v>
+      </c>
+      <c r="I6" s="101">
+        <v>100</v>
+      </c>
+      <c r="J6" s="218">
         <f t="shared" si="1"/>
-        <v>607.64199908232513</v>
-      </c>
-      <c r="K6" s="225">
+        <v>709.51324937617653</v>
+      </c>
+      <c r="K6" s="219">
         <f t="shared" ref="K6" si="2">J6/$J$7</f>
-        <v>0.2929936305732484</v>
+        <v>0.65217391304347827</v>
       </c>
       <c r="M6" s="13"/>
       <c r="O6" s="13"/>
@@ -35669,7 +35693,7 @@
       <c r="T6" s="16"/>
     </row>
     <row r="7" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -35677,24 +35701,24 @@
       </c>
       <c r="D7" s="8">
         <f>(((G4*(I4))+(G5*(I5))+(G6*(I6)))^2)/(((D6^2)*((D5/D4)^2))+(((G4*(I4^2))+(G5*(I5^2))+(G6*(I6^2)))))</f>
-        <v>2073.908562085327</v>
-      </c>
-      <c r="F7" s="104" t="s">
+        <v>1087.9203157101374</v>
+      </c>
+      <c r="F7" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="109">
+      <c r="G7" s="107">
         <f>SUM(G4:G6)</f>
-        <v>10000</v>
-      </c>
-      <c r="H7" s="109">
+        <v>3700</v>
+      </c>
+      <c r="H7" s="107">
         <v>1</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="112">
+      <c r="I7" s="108"/>
+      <c r="J7" s="110">
         <f>SUM(J4:J6)</f>
-        <v>2073.908562085327</v>
-      </c>
-      <c r="K7" s="113"/>
+        <v>1087.9203157101374</v>
+      </c>
+      <c r="K7" s="111"/>
       <c r="M7" s="13"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -35725,13 +35749,13 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
       <c r="O14" s="3"/>
     </row>
   </sheetData>
@@ -35750,7 +35774,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -35780,29 +35804,29 @@
   <sheetData>
     <row r="1" spans="2:20" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="256" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="232"/>
-      <c r="F2" s="104" t="s">
+      <c r="D2" s="257"/>
+      <c r="F2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="106" t="s">
         <v>54</v>
       </c>
       <c r="M2" s="13"/>
@@ -35814,21 +35838,21 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="2:20" ht="15">
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="209" t="s">
+      <c r="C3" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="212">
+      <c r="D3" s="206">
         <v>0.95</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="219"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="213"/>
       <c r="M3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
@@ -35838,34 +35862,34 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="2:20" ht="15">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="213">
+      <c r="D4" s="226">
         <f>_xlfn.NORM.S.INV(D3+(1-D3)/2)</f>
         <v>1.9599639845400536</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="250">
         <v>1</v>
       </c>
-      <c r="G4" s="102">
+      <c r="G4" s="100">
         <v>1000</v>
       </c>
-      <c r="H4" s="179">
+      <c r="H4" s="177">
         <f>G4/$G$7</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I4" s="103">
+      <c r="I4" s="101">
         <v>100</v>
       </c>
-      <c r="J4" s="224">
+      <c r="J4" s="218">
         <f>(G4/$G$7)*$D$7</f>
         <v>104.36338557003754</v>
       </c>
-      <c r="K4" s="225">
+      <c r="K4" s="219">
         <f>J4/$J$7</f>
         <v>0.16666666666666666</v>
       </c>
@@ -35877,33 +35901,33 @@
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="99">
         <v>5</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="250">
         <v>2</v>
       </c>
-      <c r="G5" s="102">
+      <c r="G5" s="100">
         <v>2000</v>
       </c>
-      <c r="H5" s="179">
+      <c r="H5" s="177">
         <f t="shared" ref="H5:H6" si="0">G5/$G$7</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I5" s="103">
+      <c r="I5" s="101">
         <v>70</v>
       </c>
-      <c r="J5" s="224">
+      <c r="J5" s="218">
         <f t="shared" ref="J5:J6" si="1">(G5/$G$7)*$D$7</f>
         <v>208.72677114007507</v>
       </c>
-      <c r="K5" s="225">
+      <c r="K5" s="219">
         <f t="shared" ref="K5:K6" si="2">J5/$J$7</f>
         <v>0.33333333333333331</v>
       </c>
@@ -35915,34 +35939,34 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="221">
+      <c r="D6" s="227">
         <f>G7</f>
         <v>6000</v>
       </c>
-      <c r="F6" s="105">
+      <c r="F6" s="250">
         <v>3</v>
       </c>
-      <c r="G6" s="102">
+      <c r="G6" s="100">
         <v>3000</v>
       </c>
-      <c r="H6" s="179">
+      <c r="H6" s="177">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I6" s="103">
+      <c r="I6" s="101">
         <v>50</v>
       </c>
-      <c r="J6" s="224">
+      <c r="J6" s="218">
         <f t="shared" si="1"/>
         <v>313.09015671011264</v>
       </c>
-      <c r="K6" s="225">
+      <c r="K6" s="219">
         <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
@@ -35954,7 +35978,7 @@
       <c r="T6" s="16"/>
     </row>
     <row r="7" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -35964,22 +35988,22 @@
         <f>(D6*((G4*(I4^2))+(G5*(I5^2))+(G6*(I6^2))))/(((D6^2)*((D5/D4)^2))+(((G4*(I4^2))+(G5*(I5^2))+(G6*(I6^2)))))</f>
         <v>626.18031342022527</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="109">
+      <c r="G7" s="107">
         <f>SUM(G4:G6)</f>
         <v>6000</v>
       </c>
-      <c r="H7" s="109">
+      <c r="H7" s="107">
         <v>1</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="112">
+      <c r="I7" s="108"/>
+      <c r="J7" s="110">
         <f>SUM(J4:J6)</f>
         <v>626.18031342022527</v>
       </c>
-      <c r="K7" s="113"/>
+      <c r="K7" s="111"/>
       <c r="M7" s="13"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -36010,209 +36034,209 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
       <c r="O14" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="22.5">
-      <c r="A26" s="233" t="s">
+      <c r="A26" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="233"/>
-      <c r="C26" s="233"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="233"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="233"/>
-      <c r="J26" s="233"/>
-      <c r="K26" s="233"/>
-      <c r="L26" s="233"/>
-      <c r="M26" s="233"/>
-      <c r="N26" s="233"/>
+      <c r="B26" s="258"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="258"/>
+      <c r="E26" s="258"/>
+      <c r="F26" s="258"/>
+      <c r="G26" s="258"/>
+      <c r="H26" s="258"/>
+      <c r="I26" s="258"/>
+      <c r="J26" s="258"/>
+      <c r="K26" s="258"/>
+      <c r="L26" s="258"/>
+      <c r="M26" s="258"/>
+      <c r="N26" s="258"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="B28" s="181">
+      <c r="B28" s="179">
         <f>D7</f>
         <v>626.18031342022527</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="22.5">
-      <c r="A30" s="233" t="s">
+      <c r="A30" s="258" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="233"/>
-      <c r="C30" s="233"/>
-      <c r="D30" s="233"/>
-      <c r="E30" s="233"/>
-      <c r="F30" s="233"/>
-      <c r="G30" s="233"/>
-      <c r="H30" s="233"/>
-      <c r="I30" s="233"/>
-      <c r="J30" s="233"/>
-      <c r="K30" s="233"/>
-      <c r="L30" s="233"/>
-      <c r="M30" s="233"/>
-      <c r="N30" s="233"/>
+      <c r="B30" s="258"/>
+      <c r="C30" s="258"/>
+      <c r="D30" s="258"/>
+      <c r="E30" s="258"/>
+      <c r="F30" s="258"/>
+      <c r="G30" s="258"/>
+      <c r="H30" s="258"/>
+      <c r="I30" s="258"/>
+      <c r="J30" s="258"/>
+      <c r="K30" s="258"/>
+      <c r="L30" s="258"/>
+      <c r="M30" s="258"/>
+      <c r="N30" s="258"/>
     </row>
     <row r="31" spans="1:14" ht="13.5" thickBot="1"/>
     <row r="32" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="180" t="s">
+      <c r="C32" s="178" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="16.5">
-      <c r="B33" s="186" t="s">
+      <c r="B33" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="197">
+      <c r="C33" s="195">
         <f>J4</f>
         <v>104.36338557003754</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="16.5">
-      <c r="B34" s="188" t="s">
+      <c r="B34" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="197">
+      <c r="C34" s="195">
         <f t="shared" ref="C34:C35" si="3">J5</f>
         <v>208.72677114007507</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.25" thickBot="1">
-      <c r="B35" s="189" t="s">
+      <c r="B35" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="197">
+      <c r="C35" s="195">
         <f t="shared" si="3"/>
         <v>313.09015671011264</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="198">
+      <c r="C36" s="196">
         <f>J7</f>
         <v>626.18031342022527</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="192"/>
+      <c r="C37" s="190"/>
     </row>
     <row r="38" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A38" s="234" t="s">
+      <c r="A38" s="259" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="234"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="234"/>
-      <c r="E38" s="234"/>
-      <c r="F38" s="234"/>
-      <c r="G38" s="234"/>
-      <c r="H38" s="234"/>
-      <c r="I38" s="234"/>
-      <c r="J38" s="234"/>
-      <c r="K38" s="234"/>
-      <c r="L38" s="234"/>
-      <c r="M38" s="234"/>
-      <c r="N38" s="234"/>
+      <c r="B38" s="259"/>
+      <c r="C38" s="259"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="259"/>
+      <c r="F38" s="259"/>
+      <c r="G38" s="259"/>
+      <c r="H38" s="259"/>
+      <c r="I38" s="259"/>
+      <c r="J38" s="259"/>
+      <c r="K38" s="259"/>
+      <c r="L38" s="259"/>
+      <c r="M38" s="259"/>
+      <c r="N38" s="259"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="234"/>
-      <c r="B39" s="234"/>
-      <c r="C39" s="234"/>
-      <c r="D39" s="234"/>
-      <c r="E39" s="234"/>
-      <c r="F39" s="234"/>
-      <c r="G39" s="234"/>
-      <c r="H39" s="234"/>
-      <c r="I39" s="234"/>
-      <c r="J39" s="234"/>
-      <c r="K39" s="234"/>
-      <c r="L39" s="234"/>
-      <c r="M39" s="234"/>
-      <c r="N39" s="234"/>
+      <c r="A39" s="259"/>
+      <c r="B39" s="259"/>
+      <c r="C39" s="259"/>
+      <c r="D39" s="259"/>
+      <c r="E39" s="259"/>
+      <c r="F39" s="259"/>
+      <c r="G39" s="259"/>
+      <c r="H39" s="259"/>
+      <c r="I39" s="259"/>
+      <c r="J39" s="259"/>
+      <c r="K39" s="259"/>
+      <c r="L39" s="259"/>
+      <c r="M39" s="259"/>
+      <c r="N39" s="259"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="234"/>
-      <c r="B40" s="234"/>
-      <c r="C40" s="234"/>
-      <c r="D40" s="234"/>
-      <c r="E40" s="234"/>
-      <c r="F40" s="234"/>
-      <c r="G40" s="234"/>
-      <c r="H40" s="234"/>
-      <c r="I40" s="234"/>
-      <c r="J40" s="234"/>
-      <c r="K40" s="234"/>
-      <c r="L40" s="234"/>
-      <c r="M40" s="234"/>
-      <c r="N40" s="234"/>
+      <c r="A40" s="259"/>
+      <c r="B40" s="259"/>
+      <c r="C40" s="259"/>
+      <c r="D40" s="259"/>
+      <c r="E40" s="259"/>
+      <c r="F40" s="259"/>
+      <c r="G40" s="259"/>
+      <c r="H40" s="259"/>
+      <c r="I40" s="259"/>
+      <c r="J40" s="259"/>
+      <c r="K40" s="259"/>
+      <c r="L40" s="259"/>
+      <c r="M40" s="259"/>
+      <c r="N40" s="259"/>
     </row>
-    <row r="41" spans="1:14" s="38" customFormat="1" ht="21" thickBot="1">
-      <c r="A41" s="182"/>
-      <c r="B41" s="182"/>
-      <c r="C41" s="182"/>
-      <c r="D41" s="182"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="182"/>
+    <row r="41" spans="1:14" s="37" customFormat="1" ht="21" thickBot="1">
+      <c r="A41" s="180"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41" s="182"/>
-      <c r="K41" s="182"/>
-      <c r="L41" s="182"/>
-      <c r="M41" s="182"/>
-      <c r="N41" s="182"/>
+      <c r="J41" s="180"/>
+      <c r="K41" s="180"/>
+      <c r="L41" s="180"/>
+      <c r="M41" s="180"/>
+      <c r="N41" s="180"/>
     </row>
-    <row r="42" spans="1:14" s="38" customFormat="1" ht="21" thickBot="1">
-      <c r="A42" s="182"/>
-      <c r="B42" s="104" t="s">
+    <row r="42" spans="1:14" s="37" customFormat="1" ht="21" thickBot="1">
+      <c r="A42" s="180"/>
+      <c r="B42" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="106" t="s">
+      <c r="C42" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="108" t="s">
+      <c r="D42" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="149" t="s">
+      <c r="E42" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="149" t="s">
+      <c r="F42" s="147" t="s">
         <v>37</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:14" s="38" customFormat="1" ht="20.25">
-      <c r="A43" s="182"/>
-      <c r="B43" s="186" t="s">
+    <row r="43" spans="1:14" s="37" customFormat="1" ht="20.25">
+      <c r="A43" s="180"/>
+      <c r="B43" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="102">
+      <c r="C43" s="100">
         <f t="shared" ref="C43:D45" si="4">G4</f>
         <v>1000</v>
       </c>
-      <c r="D43" s="183">
+      <c r="D43" s="181">
         <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E43" s="150">
+      <c r="E43" s="148">
         <v>5000</v>
       </c>
-      <c r="F43" s="187">
+      <c r="F43" s="185">
         <f>J4</f>
         <v>104.36338557003754</v>
       </c>
@@ -36220,23 +36244,23 @@
       <c r="H43"/>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:14" s="38" customFormat="1" ht="20.25">
-      <c r="A44" s="182"/>
-      <c r="B44" s="188" t="s">
+    <row r="44" spans="1:14" s="37" customFormat="1" ht="20.25">
+      <c r="A44" s="180"/>
+      <c r="B44" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="102">
+      <c r="C44" s="100">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D44" s="183">
+      <c r="D44" s="181">
         <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E44" s="150">
+      <c r="E44" s="148">
         <v>1700</v>
       </c>
-      <c r="F44" s="187">
+      <c r="F44" s="185">
         <f t="shared" ref="F44:F45" si="5">J5</f>
         <v>208.72677114007507</v>
       </c>
@@ -36244,23 +36268,23 @@
       <c r="H44"/>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:14" s="38" customFormat="1" ht="21" thickBot="1">
-      <c r="A45" s="182"/>
-      <c r="B45" s="189" t="s">
+    <row r="45" spans="1:14" s="37" customFormat="1" ht="21" thickBot="1">
+      <c r="A45" s="180"/>
+      <c r="B45" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="152">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="D45" s="184">
+      <c r="D45" s="182">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="E45" s="151">
+      <c r="E45" s="149">
         <v>700</v>
       </c>
-      <c r="F45" s="187">
+      <c r="F45" s="185">
         <f t="shared" si="5"/>
         <v>313.09015671011264</v>
       </c>
@@ -36273,21 +36297,21 @@
       <c r="N45"/>
     </row>
     <row r="46" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="109">
+      <c r="C46" s="107">
         <f>SUM(C43:C45)</f>
         <v>6000</v>
       </c>
-      <c r="D46" s="126">
+      <c r="D46" s="124">
         <v>1</v>
       </c>
-      <c r="E46" s="148">
+      <c r="E46" s="146">
         <f>E43*D43+D44*E44+D45*E45</f>
         <v>1750</v>
       </c>
-      <c r="F46" s="185">
+      <c r="F46" s="183">
         <f>SUM(F43:F45)</f>
         <v>626.18031342022527</v>
       </c>
@@ -36295,192 +36319,192 @@
       <c r="L46" s="16"/>
     </row>
     <row r="52" spans="1:14" ht="22.5">
-      <c r="A52" s="233" t="s">
+      <c r="A52" s="258" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="233"/>
-      <c r="C52" s="233"/>
-      <c r="D52" s="233"/>
-      <c r="E52" s="233"/>
-      <c r="F52" s="233"/>
-      <c r="G52" s="233"/>
-      <c r="H52" s="233"/>
-      <c r="I52" s="233"/>
-      <c r="J52" s="233"/>
-      <c r="K52" s="233"/>
-      <c r="L52" s="233"/>
-      <c r="M52" s="233"/>
-      <c r="N52" s="233"/>
+      <c r="B52" s="258"/>
+      <c r="C52" s="258"/>
+      <c r="D52" s="258"/>
+      <c r="E52" s="258"/>
+      <c r="F52" s="258"/>
+      <c r="G52" s="258"/>
+      <c r="H52" s="258"/>
+      <c r="I52" s="258"/>
+      <c r="J52" s="258"/>
+      <c r="K52" s="258"/>
+      <c r="L52" s="258"/>
+      <c r="M52" s="258"/>
+      <c r="N52" s="258"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" thickBot="1"/>
     <row r="57" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="106" t="s">
+      <c r="C57" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="108" t="s">
+      <c r="D57" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="149" t="s">
+      <c r="E57" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="F57" s="149" t="s">
+      <c r="F57" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="G57" s="149" t="s">
+      <c r="G57" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="130" t="s">
+      <c r="H57" s="128" t="s">
         <v>43</v>
       </c>
       <c r="I57" s="15"/>
-      <c r="J57" s="159" t="s">
+      <c r="J57" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="K57" s="159">
+      <c r="K57" s="157">
         <v>1.96</v>
       </c>
-      <c r="L57" s="193" t="s">
+      <c r="L57" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="M57" s="194">
+      <c r="M57" s="192">
         <f>E61-(K57*K58)</f>
         <v>1744.3589234394567</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.5">
-      <c r="B58" s="169" t="s">
+      <c r="B58" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="152">
+      <c r="C58" s="150">
         <f>C43</f>
         <v>1000</v>
       </c>
-      <c r="D58" s="183">
+      <c r="D58" s="181">
         <f>D43</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E58" s="150">
+      <c r="E58" s="148">
         <v>5000</v>
       </c>
-      <c r="F58" s="152">
+      <c r="F58" s="150">
         <f>F43</f>
         <v>104.36338557003754</v>
       </c>
-      <c r="G58" s="157">
+      <c r="G58" s="155">
         <v>120</v>
       </c>
-      <c r="H58" s="131">
+      <c r="H58" s="129">
         <f>((D58)^2)*((G58^2)/F58)*((C58-F58)/(C58-1))</f>
         <v>3.4361980216744996</v>
       </c>
-      <c r="J58" s="190" t="s">
+      <c r="J58" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="K58" s="190">
+      <c r="K58" s="188">
         <f>I61</f>
         <v>2.8781002859914406</v>
       </c>
-      <c r="L58" s="114"/>
-      <c r="M58" s="194">
+      <c r="L58" s="112"/>
+      <c r="M58" s="192">
         <f>E61+(K57*K58)</f>
         <v>1755.6410765605433</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.25" thickBot="1">
-      <c r="B59" s="170" t="s">
+      <c r="B59" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="152">
+      <c r="C59" s="150">
         <f t="shared" ref="C59:D59" si="6">C44</f>
         <v>2000</v>
       </c>
-      <c r="D59" s="183">
+      <c r="D59" s="181">
         <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E59" s="150">
+      <c r="E59" s="148">
         <v>1700</v>
       </c>
-      <c r="F59" s="152">
+      <c r="F59" s="150">
         <f t="shared" ref="F59:F60" si="7">F44</f>
         <v>208.72677114007507</v>
       </c>
-      <c r="G59" s="157">
+      <c r="G59" s="155">
         <v>75</v>
       </c>
-      <c r="H59" s="132">
+      <c r="H59" s="130">
         <f>((D59)^2)*((G59^2)/F59)*((C59-F59)/(C59-1))</f>
         <v>2.6831867681128259</v>
       </c>
-      <c r="J59" s="190" t="s">
+      <c r="J59" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="191">
+      <c r="K59" s="189">
         <f>K57*K58</f>
         <v>5.6410765605432234</v>
       </c>
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="1:14" ht="17.25" thickBot="1">
-      <c r="B60" s="171" t="s">
+      <c r="B60" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="152">
+      <c r="C60" s="150">
         <f t="shared" ref="C60:D60" si="8">C45</f>
         <v>3000</v>
       </c>
-      <c r="D60" s="184">
+      <c r="D60" s="182">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="E60" s="151">
+      <c r="E60" s="149">
         <v>700</v>
       </c>
-      <c r="F60" s="152">
+      <c r="F60" s="150">
         <f t="shared" si="7"/>
         <v>313.09015671011264</v>
       </c>
-      <c r="G60" s="158">
+      <c r="G60" s="156">
         <v>55</v>
       </c>
-      <c r="H60" s="119">
+      <c r="H60" s="117">
         <f>((D60)^2)*((G60^2)/F60)*((C60-F60)/(C60-1))</f>
         <v>2.1640764664366858</v>
       </c>
-      <c r="I60" s="195" t="s">
+      <c r="I60" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="J60" s="38"/>
+      <c r="J60" s="37"/>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
     </row>
     <row r="61" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B61" s="104" t="s">
+      <c r="B61" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="109">
+      <c r="C61" s="107">
         <f t="shared" ref="C61:D61" si="9">C46</f>
         <v>6000</v>
       </c>
-      <c r="D61" s="126">
+      <c r="D61" s="124">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="E61" s="148">
+      <c r="E61" s="146">
         <v>1750</v>
       </c>
-      <c r="F61" s="185">
+      <c r="F61" s="183">
         <f>F46</f>
         <v>626.18031342022527</v>
       </c>
-      <c r="H61" s="120">
+      <c r="H61" s="118">
         <f>SUM(H58:H60)</f>
         <v>8.2834612562240117</v>
       </c>
-      <c r="I61" s="199">
+      <c r="I61" s="197">
         <f>SQRT(H61)</f>
         <v>2.8781002859914406</v>
       </c>
@@ -36507,7 +36531,7 @@
   <dimension ref="A1:T61"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4:J6"/>
+      <selection activeCell="F4" sqref="F4:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -36537,29 +36561,29 @@
   <sheetData>
     <row r="1" spans="2:20" ht="13.5" thickBot="1"/>
     <row r="2" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="231" t="s">
+      <c r="C2" s="256" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="232"/>
-      <c r="F2" s="104" t="s">
+      <c r="D2" s="257"/>
+      <c r="F2" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="106" t="s">
+      <c r="G2" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="106" t="s">
+      <c r="H2" s="104" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="106" t="s">
+      <c r="I2" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="106" t="s">
+      <c r="J2" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="108" t="s">
+      <c r="K2" s="106" t="s">
         <v>57</v>
       </c>
       <c r="M2" s="13"/>
@@ -36571,21 +36595,21 @@
       <c r="T2" s="15"/>
     </row>
     <row r="3" spans="2:20" ht="15">
-      <c r="B3" s="210" t="s">
+      <c r="B3" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="209" t="s">
+      <c r="C3" s="243" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="212">
+      <c r="D3" s="206">
         <v>0.95</v>
       </c>
-      <c r="F3" s="105"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="218"/>
-      <c r="J3" s="218"/>
-      <c r="K3" s="219"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="213"/>
       <c r="M3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
@@ -36595,34 +36619,34 @@
       <c r="T3" s="15"/>
     </row>
     <row r="4" spans="2:20" ht="15">
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="208" t="s">
+      <c r="C4" s="244" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="213">
+      <c r="D4" s="207">
         <f>_xlfn.NORM.S.INV(D3+(1-D3)/2)</f>
         <v>1.9599639845400536</v>
       </c>
-      <c r="F4" s="105">
+      <c r="F4" s="250">
         <v>1</v>
       </c>
-      <c r="G4" s="102">
+      <c r="G4" s="100">
         <v>1000</v>
       </c>
-      <c r="H4" s="179">
+      <c r="H4" s="177">
         <f>G4/$G$7</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I4" s="103">
+      <c r="I4" s="101">
         <v>100</v>
       </c>
-      <c r="J4" s="224">
+      <c r="J4" s="218">
         <f>(G4*I4/($G$4*$I$4+$G$5*$I$5+$G$6*$I$6))*$D$7</f>
         <v>149.09055081433934</v>
       </c>
-      <c r="K4" s="225">
+      <c r="K4" s="219">
         <f>J4/$J$7</f>
         <v>0.25641025641025639</v>
       </c>
@@ -36634,33 +36658,33 @@
       <c r="T4" s="16"/>
     </row>
     <row r="5" spans="2:20">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="245" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="101">
+      <c r="D5" s="99">
         <v>5</v>
       </c>
-      <c r="F5" s="105">
+      <c r="F5" s="250">
         <v>2</v>
       </c>
-      <c r="G5" s="102">
+      <c r="G5" s="100">
         <v>2000</v>
       </c>
-      <c r="H5" s="179">
+      <c r="H5" s="177">
         <f t="shared" ref="H5:H6" si="0">G5/$G$7</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I5" s="103">
+      <c r="I5" s="101">
         <v>70</v>
       </c>
-      <c r="J5" s="224">
+      <c r="J5" s="218">
         <f t="shared" ref="J5:J6" si="1">(G5*I5/($G$4*$I$4+$G$5*$I$5+$G$6*$I$6))*$D$7</f>
         <v>208.7267711400751</v>
       </c>
-      <c r="K5" s="225">
+      <c r="K5" s="219">
         <f t="shared" ref="K5:K6" si="2">J5/$J$7</f>
         <v>0.35897435897435898</v>
       </c>
@@ -36672,34 +36696,34 @@
       <c r="T5" s="16"/>
     </row>
     <row r="6" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="224" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="221">
+      <c r="D6" s="215">
         <f>G7</f>
         <v>6000</v>
       </c>
-      <c r="F6" s="105">
+      <c r="F6" s="250">
         <v>3</v>
       </c>
-      <c r="G6" s="102">
+      <c r="G6" s="100">
         <v>3000</v>
       </c>
-      <c r="H6" s="179">
+      <c r="H6" s="177">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="I6" s="103">
+      <c r="I6" s="101">
         <v>50</v>
       </c>
-      <c r="J6" s="224">
+      <c r="J6" s="218">
         <f t="shared" si="1"/>
         <v>223.63582622150906</v>
       </c>
-      <c r="K6" s="225">
+      <c r="K6" s="219">
         <f t="shared" si="2"/>
         <v>0.38461538461538464</v>
       </c>
@@ -36711,32 +36735,32 @@
       <c r="T6" s="16"/>
     </row>
     <row r="7" spans="2:20" ht="13.5" thickBot="1">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="251" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="8">
         <f>(((G4*(I4))+(G5*(I5))+(G6*(I6)))^2)/(((D6^2)*((D5/D4)^2))+(((G4*(I4^2))+(G5*(I5^2))+(G6*(I6^2)))))</f>
         <v>581.4531481759235</v>
       </c>
-      <c r="F7" s="104" t="s">
+      <c r="F7" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="109">
+      <c r="G7" s="107">
         <f>SUM(G4:G6)</f>
         <v>6000</v>
       </c>
-      <c r="H7" s="109">
+      <c r="H7" s="107">
         <v>1</v>
       </c>
-      <c r="I7" s="110"/>
-      <c r="J7" s="112">
+      <c r="I7" s="108"/>
+      <c r="J7" s="110">
         <f>SUM(J4:J6)</f>
         <v>581.4531481759235</v>
       </c>
-      <c r="K7" s="113"/>
+      <c r="K7" s="111"/>
       <c r="M7" s="13"/>
       <c r="O7" s="14"/>
       <c r="P7" s="14"/>
@@ -36767,209 +36791,209 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="2:20">
-      <c r="F14" s="114"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="114"/>
-      <c r="J14" s="114"/>
-      <c r="K14" s="114"/>
-      <c r="L14" s="114"/>
+      <c r="F14" s="112"/>
+      <c r="G14" s="112"/>
+      <c r="H14" s="112"/>
+      <c r="I14" s="112"/>
+      <c r="J14" s="112"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
       <c r="O14" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="22.5">
-      <c r="A26" s="233" t="s">
+      <c r="A26" s="258" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="233"/>
-      <c r="C26" s="233"/>
-      <c r="D26" s="233"/>
-      <c r="E26" s="233"/>
-      <c r="F26" s="233"/>
-      <c r="G26" s="233"/>
-      <c r="H26" s="233"/>
-      <c r="I26" s="233"/>
-      <c r="J26" s="233"/>
-      <c r="K26" s="233"/>
-      <c r="L26" s="233"/>
-      <c r="M26" s="233"/>
-      <c r="N26" s="233"/>
+      <c r="B26" s="258"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="258"/>
+      <c r="E26" s="258"/>
+      <c r="F26" s="258"/>
+      <c r="G26" s="258"/>
+      <c r="H26" s="258"/>
+      <c r="I26" s="258"/>
+      <c r="J26" s="258"/>
+      <c r="K26" s="258"/>
+      <c r="L26" s="258"/>
+      <c r="M26" s="258"/>
+      <c r="N26" s="258"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="B28" s="181">
+      <c r="B28" s="179">
         <f>D7</f>
         <v>581.4531481759235</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="22.5">
-      <c r="A30" s="233" t="s">
+      <c r="A30" s="258" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="233"/>
-      <c r="C30" s="233"/>
-      <c r="D30" s="233"/>
-      <c r="E30" s="233"/>
-      <c r="F30" s="233"/>
-      <c r="G30" s="233"/>
-      <c r="H30" s="233"/>
-      <c r="I30" s="233"/>
-      <c r="J30" s="233"/>
-      <c r="K30" s="233"/>
-      <c r="L30" s="233"/>
-      <c r="M30" s="233"/>
-      <c r="N30" s="233"/>
+      <c r="B30" s="258"/>
+      <c r="C30" s="258"/>
+      <c r="D30" s="258"/>
+      <c r="E30" s="258"/>
+      <c r="F30" s="258"/>
+      <c r="G30" s="258"/>
+      <c r="H30" s="258"/>
+      <c r="I30" s="258"/>
+      <c r="J30" s="258"/>
+      <c r="K30" s="258"/>
+      <c r="L30" s="258"/>
+      <c r="M30" s="258"/>
+      <c r="N30" s="258"/>
     </row>
     <row r="31" spans="1:14" ht="13.5" thickBot="1"/>
     <row r="32" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="222" t="s">
+      <c r="C32" s="216" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="16.5">
-      <c r="B33" s="186" t="s">
+      <c r="B33" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="223">
+      <c r="C33" s="217">
         <f>J4</f>
         <v>149.09055081433934</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="16.5">
-      <c r="B34" s="188" t="s">
+      <c r="B34" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="223">
+      <c r="C34" s="217">
         <f t="shared" ref="C34:C35" si="3">J5</f>
         <v>208.7267711400751</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="17.25" thickBot="1">
-      <c r="B35" s="189" t="s">
+      <c r="B35" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="223">
+      <c r="C35" s="217">
         <f t="shared" si="3"/>
         <v>223.63582622150906</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B36" s="104" t="s">
+      <c r="B36" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="185">
+      <c r="C36" s="183">
         <f>J7</f>
         <v>581.4531481759235</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="C37" s="192"/>
+      <c r="C37" s="190"/>
     </row>
     <row r="38" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A38" s="234" t="s">
+      <c r="A38" s="259" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="234"/>
-      <c r="C38" s="234"/>
-      <c r="D38" s="234"/>
-      <c r="E38" s="234"/>
-      <c r="F38" s="234"/>
-      <c r="G38" s="234"/>
-      <c r="H38" s="234"/>
-      <c r="I38" s="234"/>
-      <c r="J38" s="234"/>
-      <c r="K38" s="234"/>
-      <c r="L38" s="234"/>
-      <c r="M38" s="234"/>
-      <c r="N38" s="234"/>
+      <c r="B38" s="259"/>
+      <c r="C38" s="259"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="259"/>
+      <c r="F38" s="259"/>
+      <c r="G38" s="259"/>
+      <c r="H38" s="259"/>
+      <c r="I38" s="259"/>
+      <c r="J38" s="259"/>
+      <c r="K38" s="259"/>
+      <c r="L38" s="259"/>
+      <c r="M38" s="259"/>
+      <c r="N38" s="259"/>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="234"/>
-      <c r="B39" s="234"/>
-      <c r="C39" s="234"/>
-      <c r="D39" s="234"/>
-      <c r="E39" s="234"/>
-      <c r="F39" s="234"/>
-      <c r="G39" s="234"/>
-      <c r="H39" s="234"/>
-      <c r="I39" s="234"/>
-      <c r="J39" s="234"/>
-      <c r="K39" s="234"/>
-      <c r="L39" s="234"/>
-      <c r="M39" s="234"/>
-      <c r="N39" s="234"/>
+      <c r="A39" s="259"/>
+      <c r="B39" s="259"/>
+      <c r="C39" s="259"/>
+      <c r="D39" s="259"/>
+      <c r="E39" s="259"/>
+      <c r="F39" s="259"/>
+      <c r="G39" s="259"/>
+      <c r="H39" s="259"/>
+      <c r="I39" s="259"/>
+      <c r="J39" s="259"/>
+      <c r="K39" s="259"/>
+      <c r="L39" s="259"/>
+      <c r="M39" s="259"/>
+      <c r="N39" s="259"/>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="234"/>
-      <c r="B40" s="234"/>
-      <c r="C40" s="234"/>
-      <c r="D40" s="234"/>
-      <c r="E40" s="234"/>
-      <c r="F40" s="234"/>
-      <c r="G40" s="234"/>
-      <c r="H40" s="234"/>
-      <c r="I40" s="234"/>
-      <c r="J40" s="234"/>
-      <c r="K40" s="234"/>
-      <c r="L40" s="234"/>
-      <c r="M40" s="234"/>
-      <c r="N40" s="234"/>
+      <c r="A40" s="259"/>
+      <c r="B40" s="259"/>
+      <c r="C40" s="259"/>
+      <c r="D40" s="259"/>
+      <c r="E40" s="259"/>
+      <c r="F40" s="259"/>
+      <c r="G40" s="259"/>
+      <c r="H40" s="259"/>
+      <c r="I40" s="259"/>
+      <c r="J40" s="259"/>
+      <c r="K40" s="259"/>
+      <c r="L40" s="259"/>
+      <c r="M40" s="259"/>
+      <c r="N40" s="259"/>
     </row>
-    <row r="41" spans="1:14" s="38" customFormat="1" ht="21" thickBot="1">
-      <c r="A41" s="182"/>
-      <c r="B41" s="182"/>
-      <c r="C41" s="182"/>
-      <c r="D41" s="182"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="182"/>
+    <row r="41" spans="1:14" s="37" customFormat="1" ht="21" thickBot="1">
+      <c r="A41" s="180"/>
+      <c r="B41" s="180"/>
+      <c r="C41" s="180"/>
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="180"/>
       <c r="G41"/>
       <c r="H41"/>
       <c r="I41"/>
-      <c r="J41" s="182"/>
-      <c r="K41" s="182"/>
-      <c r="L41" s="182"/>
-      <c r="M41" s="182"/>
-      <c r="N41" s="182"/>
+      <c r="J41" s="180"/>
+      <c r="K41" s="180"/>
+      <c r="L41" s="180"/>
+      <c r="M41" s="180"/>
+      <c r="N41" s="180"/>
     </row>
-    <row r="42" spans="1:14" s="38" customFormat="1" ht="21" thickBot="1">
-      <c r="A42" s="182"/>
-      <c r="B42" s="104" t="s">
+    <row r="42" spans="1:14" s="37" customFormat="1" ht="21" thickBot="1">
+      <c r="A42" s="180"/>
+      <c r="B42" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="106" t="s">
+      <c r="C42" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="108" t="s">
+      <c r="D42" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="149" t="s">
+      <c r="E42" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="149" t="s">
+      <c r="F42" s="147" t="s">
         <v>37</v>
       </c>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42"/>
     </row>
-    <row r="43" spans="1:14" s="38" customFormat="1" ht="20.25">
-      <c r="A43" s="182"/>
-      <c r="B43" s="186" t="s">
+    <row r="43" spans="1:14" s="37" customFormat="1" ht="20.25">
+      <c r="A43" s="180"/>
+      <c r="B43" s="184" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="102">
+      <c r="C43" s="100">
         <f t="shared" ref="C43:D45" si="4">G4</f>
         <v>1000</v>
       </c>
-      <c r="D43" s="183">
+      <c r="D43" s="181">
         <f t="shared" si="4"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E43" s="150">
+      <c r="E43" s="148">
         <v>5000</v>
       </c>
-      <c r="F43" s="187">
+      <c r="F43" s="185">
         <f>J4</f>
         <v>149.09055081433934</v>
       </c>
@@ -36977,23 +37001,23 @@
       <c r="H43"/>
       <c r="I43"/>
     </row>
-    <row r="44" spans="1:14" s="38" customFormat="1" ht="20.25">
-      <c r="A44" s="182"/>
-      <c r="B44" s="188" t="s">
+    <row r="44" spans="1:14" s="37" customFormat="1" ht="20.25">
+      <c r="A44" s="180"/>
+      <c r="B44" s="186" t="s">
         <v>47</v>
       </c>
-      <c r="C44" s="102">
+      <c r="C44" s="100">
         <f t="shared" si="4"/>
         <v>2000</v>
       </c>
-      <c r="D44" s="183">
+      <c r="D44" s="181">
         <f t="shared" si="4"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E44" s="150">
+      <c r="E44" s="148">
         <v>1700</v>
       </c>
-      <c r="F44" s="187">
+      <c r="F44" s="185">
         <f t="shared" ref="F44:F45" si="5">J5</f>
         <v>208.7267711400751</v>
       </c>
@@ -37001,23 +37025,23 @@
       <c r="H44"/>
       <c r="I44"/>
     </row>
-    <row r="45" spans="1:14" s="38" customFormat="1" ht="21" thickBot="1">
-      <c r="A45" s="182"/>
-      <c r="B45" s="189" t="s">
+    <row r="45" spans="1:14" s="37" customFormat="1" ht="21" thickBot="1">
+      <c r="A45" s="180"/>
+      <c r="B45" s="187" t="s">
         <v>48</v>
       </c>
-      <c r="C45" s="154">
+      <c r="C45" s="152">
         <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="D45" s="184">
+      <c r="D45" s="182">
         <f t="shared" si="4"/>
         <v>0.5</v>
       </c>
-      <c r="E45" s="151">
+      <c r="E45" s="149">
         <v>700</v>
       </c>
-      <c r="F45" s="187">
+      <c r="F45" s="185">
         <f t="shared" si="5"/>
         <v>223.63582622150906</v>
       </c>
@@ -37030,21 +37054,21 @@
       <c r="N45"/>
     </row>
     <row r="46" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B46" s="104" t="s">
+      <c r="B46" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="109">
+      <c r="C46" s="107">
         <f>SUM(C43:C45)</f>
         <v>6000</v>
       </c>
-      <c r="D46" s="126">
+      <c r="D46" s="124">
         <v>1</v>
       </c>
-      <c r="E46" s="148">
+      <c r="E46" s="146">
         <f>E43*D43+D44*E44+D45*E45</f>
         <v>1750</v>
       </c>
-      <c r="F46" s="185">
+      <c r="F46" s="183">
         <f>SUM(F43:F45)</f>
         <v>581.4531481759235</v>
       </c>
@@ -37052,192 +37076,192 @@
       <c r="L46" s="16"/>
     </row>
     <row r="52" spans="1:14" ht="22.5">
-      <c r="A52" s="233" t="s">
+      <c r="A52" s="258" t="s">
         <v>62</v>
       </c>
-      <c r="B52" s="233"/>
-      <c r="C52" s="233"/>
-      <c r="D52" s="233"/>
-      <c r="E52" s="233"/>
-      <c r="F52" s="233"/>
-      <c r="G52" s="233"/>
-      <c r="H52" s="233"/>
-      <c r="I52" s="233"/>
-      <c r="J52" s="233"/>
-      <c r="K52" s="233"/>
-      <c r="L52" s="233"/>
-      <c r="M52" s="233"/>
-      <c r="N52" s="233"/>
+      <c r="B52" s="258"/>
+      <c r="C52" s="258"/>
+      <c r="D52" s="258"/>
+      <c r="E52" s="258"/>
+      <c r="F52" s="258"/>
+      <c r="G52" s="258"/>
+      <c r="H52" s="258"/>
+      <c r="I52" s="258"/>
+      <c r="J52" s="258"/>
+      <c r="K52" s="258"/>
+      <c r="L52" s="258"/>
+      <c r="M52" s="258"/>
+      <c r="N52" s="258"/>
     </row>
     <row r="56" spans="1:14" ht="13.5" thickBot="1"/>
     <row r="57" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B57" s="104" t="s">
+      <c r="B57" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="106" t="s">
+      <c r="C57" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="108" t="s">
+      <c r="D57" s="106" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="149" t="s">
+      <c r="E57" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="F57" s="149" t="s">
+      <c r="F57" s="147" t="s">
         <v>37</v>
       </c>
-      <c r="G57" s="149" t="s">
+      <c r="G57" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="130" t="s">
+      <c r="H57" s="128" t="s">
         <v>43</v>
       </c>
       <c r="I57" s="15"/>
-      <c r="J57" s="159" t="s">
+      <c r="J57" s="157" t="s">
         <v>44</v>
       </c>
-      <c r="K57" s="159">
+      <c r="K57" s="157">
         <v>1.96</v>
       </c>
-      <c r="L57" s="193" t="s">
+      <c r="L57" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="M57" s="194">
+      <c r="M57" s="192">
         <f>E61-(K57*K58)</f>
         <v>1744.4220936929119</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="16.5">
-      <c r="B58" s="169" t="s">
+      <c r="B58" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="C58" s="152">
+      <c r="C58" s="150">
         <f>C43</f>
         <v>1000</v>
       </c>
-      <c r="D58" s="183">
+      <c r="D58" s="181">
         <f>D43</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E58" s="150">
+      <c r="E58" s="148">
         <v>5000</v>
       </c>
-      <c r="F58" s="152">
+      <c r="F58" s="150">
         <f>F43</f>
         <v>149.09055081433934</v>
       </c>
-      <c r="G58" s="157">
+      <c r="G58" s="155">
         <v>120</v>
       </c>
-      <c r="H58" s="131">
+      <c r="H58" s="129">
         <f>((D58)^2)*((G58^2)/F58)*((C58-F58)/(C58-1))</f>
         <v>2.2852184950520291</v>
       </c>
-      <c r="J58" s="190" t="s">
+      <c r="J58" s="188" t="s">
         <v>40</v>
       </c>
-      <c r="K58" s="190">
+      <c r="K58" s="188">
         <f>I61</f>
         <v>2.8458705648409413</v>
       </c>
-      <c r="L58" s="114"/>
-      <c r="M58" s="194">
+      <c r="L58" s="112"/>
+      <c r="M58" s="192">
         <f>E61+(K57*K58)</f>
         <v>1755.5779063070881</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="17.25" thickBot="1">
-      <c r="B59" s="170" t="s">
+      <c r="B59" s="168" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="152">
+      <c r="C59" s="150">
         <f t="shared" ref="C59:D61" si="6">C44</f>
         <v>2000</v>
       </c>
-      <c r="D59" s="183">
+      <c r="D59" s="181">
         <f t="shared" si="6"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E59" s="150">
+      <c r="E59" s="148">
         <v>1700</v>
       </c>
-      <c r="F59" s="152">
+      <c r="F59" s="150">
         <f t="shared" ref="F59:F60" si="7">F44</f>
         <v>208.7267711400751</v>
       </c>
-      <c r="G59" s="157">
+      <c r="G59" s="155">
         <v>75</v>
       </c>
-      <c r="H59" s="132">
+      <c r="H59" s="130">
         <f>((D59)^2)*((G59^2)/F59)*((C59-F59)/(C59-1))</f>
         <v>2.6831867681128254</v>
       </c>
-      <c r="J59" s="190" t="s">
+      <c r="J59" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="K59" s="191">
+      <c r="K59" s="189">
         <f>K57*K58</f>
         <v>5.5779063070882451</v>
       </c>
       <c r="L59" s="16"/>
     </row>
     <row r="60" spans="1:14" ht="17.25" thickBot="1">
-      <c r="B60" s="171" t="s">
+      <c r="B60" s="169" t="s">
         <v>48</v>
       </c>
-      <c r="C60" s="152">
+      <c r="C60" s="150">
         <f t="shared" si="6"/>
         <v>3000</v>
       </c>
-      <c r="D60" s="184">
+      <c r="D60" s="182">
         <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="E60" s="151">
+      <c r="E60" s="149">
         <v>700</v>
       </c>
-      <c r="F60" s="152">
+      <c r="F60" s="150">
         <f t="shared" si="7"/>
         <v>223.63582622150906</v>
       </c>
-      <c r="G60" s="158">
+      <c r="G60" s="156">
         <v>55</v>
       </c>
-      <c r="H60" s="119">
+      <c r="H60" s="117">
         <f>((D60)^2)*((G60^2)/F60)*((C60-F60)/(C60-1))</f>
         <v>3.1305740086632441</v>
       </c>
-      <c r="I60" s="195" t="s">
+      <c r="I60" s="193" t="s">
         <v>49</v>
       </c>
-      <c r="J60" s="38"/>
+      <c r="J60" s="37"/>
       <c r="K60" s="16"/>
       <c r="L60" s="16"/>
     </row>
     <row r="61" spans="1:14" ht="13.5" thickBot="1">
-      <c r="B61" s="104" t="s">
+      <c r="B61" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="C61" s="109">
+      <c r="C61" s="107">
         <f t="shared" si="6"/>
         <v>6000</v>
       </c>
-      <c r="D61" s="126">
+      <c r="D61" s="124">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="E61" s="148">
+      <c r="E61" s="146">
         <v>1750</v>
       </c>
-      <c r="F61" s="185">
+      <c r="F61" s="183">
         <f>F46</f>
         <v>581.4531481759235</v>
       </c>
-      <c r="H61" s="120">
+      <c r="H61" s="118">
         <f>SUM(H58:H60)</f>
         <v>8.0989792718280977</v>
       </c>
-      <c r="I61" s="199">
+      <c r="I61" s="197">
         <f>SQRT(H61)</f>
         <v>2.8458705648409413</v>
       </c>
